--- a/capiq_data/in_process_data/IQ22623.xlsx
+++ b/capiq_data/in_process_data/IQ22623.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB1137D-8112-47A5-9A60-43051BE33330}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016445E2-E9A5-4EED-9EE1-220E7A22A682}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"34f2ada4-500c-402a-a172-7bb92f30e50c"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"159d224a-fb12-409c-92e1-c170aaeb411f"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
   </si>
   <si>
     <t>FQ12011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,120 +853,120 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36889</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>81.722999999999999</v>
+        <v>32.180999999999997</v>
       </c>
       <c r="D2">
-        <v>802.59699999999998</v>
+        <v>352.22899999999998</v>
       </c>
       <c r="E2">
-        <v>1744.2329999999999</v>
+        <v>1989.0050000000001</v>
       </c>
       <c r="F2">
-        <v>754.63099999999997</v>
+        <v>335.80099999999999</v>
       </c>
       <c r="G2">
-        <v>13395.047</v>
+        <v>6934.6940000000004</v>
       </c>
       <c r="H2">
-        <v>14849.838</v>
+        <v>7129.6</v>
       </c>
       <c r="I2">
-        <v>3734.4349999999999</v>
+        <v>3867.55</v>
       </c>
       <c r="J2">
-        <v>462.60599999999999</v>
+        <v>146.36600000000001</v>
       </c>
       <c r="K2">
-        <v>701.83699999999999</v>
+        <v>2127.8029999999999</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>-2539.654</v>
+        <v>-27.332000000000001</v>
       </c>
       <c r="N2">
-        <v>4933.9219999999996</v>
+        <v>6166.1940000000004</v>
       </c>
       <c r="O2">
-        <v>12131.905000000001</v>
+        <v>6433.6040000000003</v>
       </c>
       <c r="P2">
-        <v>1164.4459999999999</v>
+        <v>2274.1689999999999</v>
       </c>
       <c r="Q2">
-        <v>-1738.356</v>
+        <v>116.4</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36889</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>2717.933</v>
+        <v>695.99599999999998</v>
       </c>
       <c r="U2">
-        <v>1204.883</v>
+        <v>421.68400000000003</v>
       </c>
       <c r="V2">
-        <v>1212.4490000000001</v>
+        <v>37.548000000000002</v>
       </c>
       <c r="W2">
-        <v>-16.387</v>
+        <v>-4.22</v>
       </c>
       <c r="X2">
-        <v>-2927.11</v>
+        <v>13.967000000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>31.481000000000002</v>
+        <v>68.667000000000002</v>
       </c>
       <c r="AA2">
-        <v>81.722999999999999</v>
+        <v>32.180999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36980</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>80.917000000000002</v>
+        <v>22.664999999999999</v>
       </c>
       <c r="D3">
-        <v>843.42</v>
+        <v>372.09899999999999</v>
       </c>
       <c r="E3">
-        <v>1928.828</v>
+        <v>1772.4179999999999</v>
       </c>
       <c r="F3">
-        <v>762.95299999999997</v>
+        <v>352.34699999999998</v>
       </c>
       <c r="G3">
-        <v>13877.86</v>
+        <v>6853.22</v>
       </c>
       <c r="H3">
-        <v>15284.179</v>
+        <v>7096.7719999999999</v>
       </c>
       <c r="I3">
-        <v>4090.1439999999998</v>
+        <v>3903.625</v>
       </c>
       <c r="J3">
-        <v>463.34500000000003</v>
+        <v>194.245</v>
       </c>
       <c r="K3">
-        <v>678.81200000000001</v>
+        <v>2035.0640000000001</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,81 +975,81 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>5238.1589999999997</v>
+        <v>6164.5879999999997</v>
       </c>
       <c r="O3">
-        <v>12464.771000000001</v>
+        <v>6358.8329999999996</v>
       </c>
       <c r="P3">
-        <v>1142.1569999999999</v>
+        <v>2229.3090000000002</v>
       </c>
       <c r="Q3">
-        <v>50.284999999999997</v>
+        <v>-15.375999999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36980</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2819.4079999999999</v>
+        <v>737.93899999999996</v>
       </c>
       <c r="U3">
-        <v>1255.1679999999999</v>
+        <v>406.30799999999999</v>
       </c>
       <c r="V3">
-        <v>-79.471999999999994</v>
+        <v>45.484000000000002</v>
       </c>
       <c r="W3">
-        <v>-16.481000000000002</v>
+        <v>-4.2939999999999996</v>
       </c>
       <c r="X3">
-        <v>3.5289999999999999</v>
+        <v>41.411999999999999</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>56.747999999999998</v>
+        <v>-44.567999999999998</v>
       </c>
       <c r="AA3">
-        <v>80.917000000000002</v>
+        <v>22.664999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37071</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>46.786000000000001</v>
+        <v>28.93</v>
       </c>
       <c r="D4">
-        <v>842.024</v>
+        <v>374.66300000000001</v>
       </c>
       <c r="E4">
-        <v>1988.1969999999999</v>
+        <v>1763.0219999999999</v>
       </c>
       <c r="F4">
-        <v>760.74800000000005</v>
+        <v>354.709</v>
       </c>
       <c r="G4">
-        <v>14699.72</v>
+        <v>6405.5290000000005</v>
       </c>
       <c r="H4">
-        <v>16117.109</v>
+        <v>6634.9859999999999</v>
       </c>
       <c r="I4">
-        <v>4138.6570000000002</v>
+        <v>3691.3040000000001</v>
       </c>
       <c r="J4">
-        <v>707.22199999999998</v>
+        <v>194.32900000000001</v>
       </c>
       <c r="K4">
-        <v>838.096</v>
+        <v>1673.9659999999999</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>5553.63</v>
+        <v>5674.9849999999997</v>
       </c>
       <c r="O4">
-        <v>13251.87</v>
+        <v>5869.3140000000003</v>
       </c>
       <c r="P4">
-        <v>1549.306</v>
+        <v>1868.2950000000001</v>
       </c>
       <c r="Q4">
-        <v>343.52</v>
+        <v>-13.345000000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37071</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2865.239</v>
+        <v>765.67200000000003</v>
       </c>
       <c r="U4">
-        <v>1598.6880000000001</v>
+        <v>392.96300000000002</v>
       </c>
       <c r="V4">
-        <v>-42.822000000000003</v>
+        <v>4.1909999999999998</v>
       </c>
       <c r="W4">
-        <v>-16.478000000000002</v>
+        <v>-4.6139999999999999</v>
       </c>
       <c r="X4">
-        <v>472.63</v>
+        <v>-2.2109999999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>13.714</v>
+        <v>-5.9089999999999998</v>
       </c>
       <c r="AA4">
-        <v>46.786000000000001</v>
+        <v>28.93</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37162</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>68.927000000000007</v>
+        <v>12.634</v>
       </c>
       <c r="D5">
-        <v>812.36</v>
+        <v>343.64800000000002</v>
       </c>
       <c r="E5">
-        <v>1812.924</v>
+        <v>1778.252</v>
       </c>
       <c r="F5">
-        <v>842.13199999999995</v>
+        <v>323.26499999999999</v>
       </c>
       <c r="G5">
-        <v>16353.517</v>
+        <v>6142.1</v>
       </c>
       <c r="H5">
-        <v>18006.994999999999</v>
+        <v>6372.0540000000001</v>
       </c>
       <c r="I5">
-        <v>5059.4449999999997</v>
+        <v>3920.4989999999998</v>
       </c>
       <c r="J5">
-        <v>690.61800000000005</v>
+        <v>162.42599999999999</v>
       </c>
       <c r="K5">
-        <v>1009.922</v>
+        <v>1265.0889999999999</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,164 +1141,164 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>6634.7730000000001</v>
+        <v>5438.7520000000004</v>
       </c>
       <c r="O5">
-        <v>15095.15</v>
+        <v>5601.1779999999999</v>
       </c>
       <c r="P5">
-        <v>1721.8720000000001</v>
+        <v>1427.5150000000001</v>
       </c>
       <c r="Q5">
-        <v>841.00699999999995</v>
+        <v>65.504999999999995</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37162</v>
       </c>
       <c r="S5">
-        <v>7600</v>
+        <v>5811</v>
       </c>
       <c r="T5">
-        <v>2911.8449999999998</v>
+        <v>770.87599999999998</v>
       </c>
       <c r="U5">
-        <v>2439.6950000000002</v>
+        <v>458.46800000000002</v>
       </c>
       <c r="V5">
-        <v>468.286</v>
+        <v>93.269000000000005</v>
       </c>
       <c r="W5">
-        <v>-13.744</v>
+        <v>-4.3010000000000002</v>
       </c>
       <c r="X5">
-        <v>771.56700000000001</v>
+        <v>-35.531999999999996</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-183.726</v>
+        <v>14.782999999999999</v>
       </c>
       <c r="AA5">
-        <v>68.927000000000007</v>
+        <v>12.634</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37253</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>67.325000000000003</v>
+        <v>18.097999999999999</v>
       </c>
       <c r="D6">
-        <v>775.32100000000003</v>
+        <v>340.98500000000001</v>
       </c>
       <c r="E6">
-        <v>1741.1030000000001</v>
+        <v>1802.6030000000001</v>
       </c>
       <c r="F6">
-        <v>697.80100000000004</v>
+        <v>322.52</v>
       </c>
       <c r="G6">
-        <v>16395.462</v>
+        <v>6373.7969999999996</v>
       </c>
       <c r="H6">
-        <v>17891.565999999999</v>
+        <v>6606.0079999999998</v>
       </c>
       <c r="I6">
-        <v>5186.7169999999996</v>
+        <v>4075.4059999999999</v>
       </c>
       <c r="J6">
-        <v>697.101</v>
+        <v>149.48500000000001</v>
       </c>
       <c r="K6">
-        <v>866.88400000000001</v>
+        <v>1336.951</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>-15.446999999999999</v>
+        <v>-11.007</v>
       </c>
       <c r="N6">
-        <v>6480.1009999999997</v>
+        <v>5590.402</v>
       </c>
       <c r="O6">
-        <v>14928.611999999999</v>
+        <v>5811.866</v>
       </c>
       <c r="P6">
-        <v>1563.9849999999999</v>
+        <v>1486.4359999999999</v>
       </c>
       <c r="Q6">
-        <v>-522.74099999999999</v>
+        <v>-105.36</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37253</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>2962.9540000000002</v>
+        <v>794.14200000000005</v>
       </c>
       <c r="U6">
-        <v>1916.954</v>
+        <v>353.108</v>
       </c>
       <c r="V6">
-        <v>-19.991</v>
+        <v>-80.159000000000006</v>
       </c>
       <c r="W6">
-        <v>-16.399000000000001</v>
+        <v>-4.798</v>
       </c>
       <c r="X6">
-        <v>-57.930999999999997</v>
+        <v>3.8050000000000002</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>39.081000000000003</v>
+        <v>-24.346</v>
       </c>
       <c r="AA6">
-        <v>67.325000000000003</v>
+        <v>18.097999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37343</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>68.869</v>
+        <v>18.817</v>
       </c>
       <c r="D7">
-        <v>866.69600000000003</v>
+        <v>359.803</v>
       </c>
       <c r="E7">
-        <v>1763.34</v>
+        <v>1690.9870000000001</v>
       </c>
       <c r="F7">
-        <v>806.74199999999996</v>
+        <v>341.572</v>
       </c>
       <c r="G7">
-        <v>17659.766</v>
+        <v>6399.1779999999999</v>
       </c>
       <c r="H7">
-        <v>19275.376</v>
+        <v>6629.5860000000002</v>
       </c>
       <c r="I7">
-        <v>5119.7839999999997</v>
+        <v>3879.491</v>
       </c>
       <c r="J7">
-        <v>1273.364</v>
+        <v>332.09199999999998</v>
       </c>
       <c r="K7">
-        <v>1034.4949999999999</v>
+        <v>1285.7829999999999</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,81 +1307,81 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6638.5320000000002</v>
+        <v>5486.2790000000005</v>
       </c>
       <c r="O7">
-        <v>15859.504999999999</v>
+        <v>5818.3710000000001</v>
       </c>
       <c r="P7">
-        <v>2331.1089999999999</v>
+        <v>1617.875</v>
       </c>
       <c r="Q7">
-        <v>958.904</v>
+        <v>36.777000000000001</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37343</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>3415.8710000000001</v>
+        <v>811.21500000000003</v>
       </c>
       <c r="U7">
-        <v>2875.8580000000002</v>
+        <v>389.88499999999999</v>
       </c>
       <c r="V7">
-        <v>89.061000000000007</v>
+        <v>-97.704999999999998</v>
       </c>
       <c r="W7">
-        <v>-16.478999999999999</v>
+        <v>-4.3310000000000004</v>
       </c>
       <c r="X7">
-        <v>1477.5039999999999</v>
+        <v>164.273</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-97.616</v>
+        <v>-24.702999999999999</v>
       </c>
       <c r="AA7">
-        <v>68.869</v>
+        <v>18.817</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37435</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>76.349999999999994</v>
+        <v>20.393000000000001</v>
       </c>
       <c r="D8">
-        <v>1076.0139999999999</v>
+        <v>370.94499999999999</v>
       </c>
       <c r="E8">
-        <v>2579.1799999999998</v>
+        <v>1766.921</v>
       </c>
       <c r="F8">
-        <v>1001.942</v>
+        <v>351.49700000000001</v>
       </c>
       <c r="G8">
-        <v>18853.019</v>
+        <v>6316.3760000000002</v>
       </c>
       <c r="H8">
-        <v>21170.555</v>
+        <v>6554.97</v>
       </c>
       <c r="I8">
-        <v>5383.0789999999997</v>
+        <v>3821.0610000000001</v>
       </c>
       <c r="J8">
-        <v>1392.375</v>
+        <v>292.39299999999997</v>
       </c>
       <c r="K8">
-        <v>1450.1590000000001</v>
+        <v>1258.6890000000001</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7655.3869999999997</v>
+        <v>5431.46</v>
       </c>
       <c r="O8">
-        <v>17588.846000000001</v>
+        <v>5723.8530000000001</v>
       </c>
       <c r="P8">
-        <v>2864.6790000000001</v>
+        <v>1551.0820000000001</v>
       </c>
       <c r="Q8">
-        <v>-1146.8230000000001</v>
+        <v>31.562000000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37435</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>3581.7089999999998</v>
+        <v>831.11699999999996</v>
       </c>
       <c r="U8">
-        <v>1729.0350000000001</v>
+        <v>421.447</v>
       </c>
       <c r="V8">
-        <v>146.71700000000001</v>
+        <v>8.0719999999999992</v>
       </c>
       <c r="W8">
-        <v>-17.777000000000001</v>
+        <v>-5.0609999999999999</v>
       </c>
       <c r="X8">
-        <v>163.56399999999999</v>
+        <v>-43.182000000000002</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-64.013999999999996</v>
+        <v>75.748000000000005</v>
       </c>
       <c r="AA8">
-        <v>76.349999999999994</v>
+        <v>20.393000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37526</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>83.325000000000003</v>
+        <v>21.995000000000001</v>
       </c>
       <c r="D9">
-        <v>1063.1969999999999</v>
+        <v>369.35500000000002</v>
       </c>
       <c r="E9">
-        <v>2301.4229999999998</v>
+        <v>1603.702</v>
       </c>
       <c r="F9">
-        <v>984.279</v>
+        <v>330.62400000000002</v>
       </c>
       <c r="G9">
-        <v>18638.003000000001</v>
+        <v>5793.1639999999998</v>
       </c>
       <c r="H9">
-        <v>21160.264999999999</v>
+        <v>6040.3029999999999</v>
       </c>
       <c r="I9">
-        <v>5246.6840000000002</v>
+        <v>3941.221</v>
       </c>
       <c r="J9">
-        <v>1392.0309999999999</v>
+        <v>147.15299999999999</v>
       </c>
       <c r="K9">
-        <v>1234.2919999999999</v>
+        <v>836.78899999999999</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,164 +1473,164 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>7482.0389999999998</v>
+        <v>5053.5140000000001</v>
       </c>
       <c r="O9">
-        <v>17479.983</v>
+        <v>5200.6670000000004</v>
       </c>
       <c r="P9">
-        <v>2645.098</v>
+        <v>983.94200000000001</v>
       </c>
       <c r="Q9">
-        <v>250.98500000000001</v>
+        <v>48.052</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37526</v>
       </c>
       <c r="S9">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>3680.2820000000002</v>
+        <v>839.63599999999997</v>
       </c>
       <c r="U9">
-        <v>1980.02</v>
+        <v>469.49900000000002</v>
       </c>
       <c r="V9">
-        <v>175.50200000000001</v>
+        <v>224.01599999999999</v>
       </c>
       <c r="W9">
-        <v>-18.126999999999999</v>
+        <v>-4.3179999999999996</v>
       </c>
       <c r="X9">
-        <v>296.13799999999998</v>
+        <v>-153.375</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-37.148000000000003</v>
+        <v>-12.28</v>
       </c>
       <c r="AA9">
-        <v>83.325000000000003</v>
+        <v>21.995000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37617</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>85.873999999999995</v>
+        <v>14.428000000000001</v>
       </c>
       <c r="D10">
-        <v>1106.191</v>
+        <v>331.39499999999998</v>
       </c>
       <c r="E10">
-        <v>2136.7710000000002</v>
+        <v>1590.298</v>
       </c>
       <c r="F10">
-        <v>1027.607</v>
+        <v>312.21600000000001</v>
       </c>
       <c r="G10">
-        <v>19821.671999999999</v>
+        <v>5899.134</v>
       </c>
       <c r="H10">
-        <v>22275.971000000001</v>
+        <v>6159.402</v>
       </c>
       <c r="I10">
-        <v>6060.7290000000003</v>
+        <v>4051.63</v>
       </c>
       <c r="J10">
-        <v>1265.7529999999999</v>
+        <v>168.44800000000001</v>
       </c>
       <c r="K10">
-        <v>1206.9280000000001</v>
+        <v>825.99</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>-140.494</v>
+        <v>-2.1539999999999999</v>
       </c>
       <c r="N10">
-        <v>8023.5569999999998</v>
+        <v>5130.3339999999998</v>
       </c>
       <c r="O10">
-        <v>18466.388999999999</v>
+        <v>5298.7820000000002</v>
       </c>
       <c r="P10">
-        <v>2478.4050000000002</v>
+        <v>994.43799999999999</v>
       </c>
       <c r="Q10">
-        <v>207.68700000000001</v>
+        <v>-72.245999999999995</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37617</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>3809.5819999999999</v>
+        <v>860.62</v>
       </c>
       <c r="U10">
-        <v>2187.7069999999999</v>
+        <v>397.25299999999999</v>
       </c>
       <c r="V10">
-        <v>237.989</v>
+        <v>-124.194</v>
       </c>
       <c r="W10">
-        <v>-17.968</v>
+        <v>-4.4349999999999996</v>
       </c>
       <c r="X10">
-        <v>354.363</v>
+        <v>18.023</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>29.832000000000001</v>
+        <v>38.767000000000003</v>
       </c>
       <c r="AA10">
-        <v>85.873999999999995</v>
+        <v>14.428000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37708</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>79.959999999999994</v>
+        <v>15.194000000000001</v>
       </c>
       <c r="D11">
-        <v>1138.7329999999999</v>
+        <v>339.81900000000002</v>
       </c>
       <c r="E11">
-        <v>2388.0160000000001</v>
+        <v>1725.624</v>
       </c>
       <c r="F11">
-        <v>1053.9000000000001</v>
+        <v>315.83</v>
       </c>
       <c r="G11">
-        <v>20196.266</v>
+        <v>6110.9570000000003</v>
       </c>
       <c r="H11">
-        <v>22735.145</v>
+        <v>6370.527</v>
       </c>
       <c r="I11">
-        <v>6070.1409999999996</v>
+        <v>4052.2629999999999</v>
       </c>
       <c r="J11">
-        <v>1266.8330000000001</v>
+        <v>293.97800000000001</v>
       </c>
       <c r="K11">
-        <v>1258.7470000000001</v>
+        <v>918.21699999999998</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1519,81 +1639,81 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>8254.9670000000006</v>
+        <v>5214.67</v>
       </c>
       <c r="O11">
-        <v>18823.260999999999</v>
+        <v>5508.6480000000001</v>
       </c>
       <c r="P11">
-        <v>2530.4259999999999</v>
+        <v>1212.1949999999999</v>
       </c>
       <c r="Q11">
-        <v>-13.558</v>
+        <v>77.739999999999995</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37708</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>3911.884</v>
+        <v>861.87900000000002</v>
       </c>
       <c r="U11">
-        <v>2174.1489999999999</v>
+        <v>474.99299999999999</v>
       </c>
       <c r="V11">
-        <v>-61.981000000000002</v>
+        <v>-64.058999999999997</v>
       </c>
       <c r="W11">
-        <v>-19.489000000000001</v>
+        <v>-4.4909999999999997</v>
       </c>
       <c r="X11">
-        <v>159.74799999999999</v>
+        <v>94.772000000000006</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-26.068000000000001</v>
+        <v>49.192999999999998</v>
       </c>
       <c r="AA11">
-        <v>79.959999999999994</v>
+        <v>15.194000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37799</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>83.861999999999995</v>
+        <v>23.561</v>
       </c>
       <c r="D12">
-        <v>1109.2819999999999</v>
+        <v>377.99099999999999</v>
       </c>
       <c r="E12">
-        <v>2284.8989999999999</v>
+        <v>1883.961</v>
       </c>
       <c r="F12">
-        <v>1022.509</v>
+        <v>353.608</v>
       </c>
       <c r="G12">
-        <v>19941.201000000001</v>
+        <v>6742.3059999999996</v>
       </c>
       <c r="H12">
-        <v>22214.190999999999</v>
+        <v>7013.6760000000004</v>
       </c>
       <c r="I12">
-        <v>6035.643</v>
+        <v>4252.741</v>
       </c>
       <c r="J12">
-        <v>1256.499</v>
+        <v>454.10199999999998</v>
       </c>
       <c r="K12">
-        <v>962.06700000000001</v>
+        <v>1066.4590000000001</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>7741.28</v>
+        <v>5670.5320000000002</v>
       </c>
       <c r="O12">
-        <v>18339.048999999999</v>
+        <v>6124.634</v>
       </c>
       <c r="P12">
-        <v>2219.4969999999998</v>
+        <v>1520.5609999999999</v>
       </c>
       <c r="Q12">
-        <v>411.39600000000002</v>
+        <v>92.733000000000004</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37799</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>3875.1419999999998</v>
+        <v>889.04200000000003</v>
       </c>
       <c r="U12">
-        <v>2585.5450000000001</v>
+        <v>567.726</v>
       </c>
       <c r="V12">
-        <v>237.16900000000001</v>
+        <v>-101.242</v>
       </c>
       <c r="W12">
-        <v>-19.545000000000002</v>
+        <v>-4.4480000000000004</v>
       </c>
       <c r="X12">
-        <v>-36.941000000000003</v>
+        <v>158.11699999999999</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>262.46100000000001</v>
+        <v>42.838000000000001</v>
       </c>
       <c r="AA12">
-        <v>83.861999999999995</v>
+        <v>23.562000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37890</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>117.458</v>
+        <v>33.134</v>
       </c>
       <c r="D13">
-        <v>1127.079</v>
+        <v>402.75599999999997</v>
       </c>
       <c r="E13">
-        <v>2234.4409999999998</v>
+        <v>1778.933</v>
       </c>
       <c r="F13">
-        <v>1042.538</v>
+        <v>317.35899999999998</v>
       </c>
       <c r="G13">
-        <v>20865.305</v>
+        <v>6637.366</v>
       </c>
       <c r="H13">
-        <v>23186.121999999999</v>
+        <v>6911.6379999999999</v>
       </c>
       <c r="I13">
-        <v>6601.384</v>
+        <v>4285.5290000000005</v>
       </c>
       <c r="J13">
-        <v>1238.385</v>
+        <v>167.01300000000001</v>
       </c>
       <c r="K13">
-        <v>996.08199999999999</v>
+        <v>1227.348</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,164 +1805,164 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>8628.884</v>
+        <v>5809.3419999999996</v>
       </c>
       <c r="O13">
-        <v>19187.785</v>
+        <v>5976.3549999999996</v>
       </c>
       <c r="P13">
-        <v>2253.5279999999998</v>
+        <v>1394.3610000000001</v>
       </c>
       <c r="Q13">
-        <v>11.071</v>
+        <v>166.905</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37890</v>
       </c>
       <c r="S13">
-        <v>10150</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>3998.337</v>
+        <v>935.28300000000002</v>
       </c>
       <c r="U13">
-        <v>2596.616</v>
+        <v>734.63099999999997</v>
       </c>
       <c r="V13">
-        <v>246.62799999999999</v>
+        <v>480.685</v>
       </c>
       <c r="W13">
-        <v>-19.591000000000001</v>
+        <v>-4.2649999999999997</v>
       </c>
       <c r="X13">
-        <v>138.262</v>
+        <v>-288.17899999999997</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>24.687999999999999</v>
+        <v>-21.132000000000001</v>
       </c>
       <c r="AA13">
-        <v>117.458</v>
+        <v>33.134</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37981</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>116.633</v>
+        <v>24.23</v>
       </c>
       <c r="D14">
-        <v>1173.9849999999999</v>
+        <v>413.98700000000002</v>
       </c>
       <c r="E14">
-        <v>1994.7539999999999</v>
+        <v>1838.9190000000001</v>
       </c>
       <c r="F14">
-        <v>1090.3779999999999</v>
+        <v>389.73899999999998</v>
       </c>
       <c r="G14">
-        <v>19695.097000000002</v>
+        <v>6627.2340000000004</v>
       </c>
       <c r="H14">
-        <v>21924.494999999999</v>
+        <v>6910.4530000000004</v>
       </c>
       <c r="I14">
-        <v>4659.2889999999998</v>
+        <v>4171.9740000000002</v>
       </c>
       <c r="J14">
-        <v>1246.348</v>
+        <v>202.809</v>
       </c>
       <c r="K14">
-        <v>894.72500000000002</v>
+        <v>1217.298</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>-17.577000000000002</v>
+        <v>-5.3390000000000004</v>
       </c>
       <c r="N14">
-        <v>6345.1469999999999</v>
+        <v>5751.5770000000002</v>
       </c>
       <c r="O14">
-        <v>17798.906999999999</v>
+        <v>5954.3860000000004</v>
       </c>
       <c r="P14">
-        <v>2141.0729999999999</v>
+        <v>1420.107</v>
       </c>
       <c r="Q14">
-        <v>205.33600000000001</v>
+        <v>-140.31800000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37981</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>4125.5879999999997</v>
+        <v>956.06700000000001</v>
       </c>
       <c r="U14">
-        <v>2801.9520000000002</v>
+        <v>594.31299999999999</v>
       </c>
       <c r="V14">
-        <v>16.515999999999998</v>
+        <v>-202.09100000000001</v>
       </c>
       <c r="W14">
-        <v>-20.28</v>
+        <v>-4.415</v>
       </c>
       <c r="X14">
-        <v>695.73599999999999</v>
+        <v>34.572000000000003</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>35.302999999999997</v>
+        <v>32.51</v>
       </c>
       <c r="AA14">
-        <v>116.633</v>
+        <v>24.23</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38072</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>104.56</v>
+        <v>43.067999999999998</v>
       </c>
       <c r="D15">
-        <v>1179.636</v>
+        <v>480.44799999999998</v>
       </c>
       <c r="E15">
-        <v>2082.3470000000002</v>
+        <v>1911.001</v>
       </c>
       <c r="F15">
-        <v>1086.4590000000001</v>
+        <v>459.899</v>
       </c>
       <c r="G15">
-        <v>20702.095000000001</v>
+        <v>7097.4979999999996</v>
       </c>
       <c r="H15">
-        <v>22868.901999999998</v>
+        <v>7381.1360000000004</v>
       </c>
       <c r="I15">
-        <v>4768.03</v>
+        <v>4295.366</v>
       </c>
       <c r="J15">
-        <v>1246.204</v>
+        <v>189.14500000000001</v>
       </c>
       <c r="K15">
-        <v>1184.1780000000001</v>
+        <v>1594.6780000000001</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1851,81 +1971,81 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>6804.2169999999996</v>
+        <v>6189.0810000000001</v>
       </c>
       <c r="O15">
-        <v>18660.541000000001</v>
+        <v>6378.2259999999997</v>
       </c>
       <c r="P15">
-        <v>2430.3820000000001</v>
+        <v>1783.8230000000001</v>
       </c>
       <c r="Q15">
-        <v>-160.07599999999999</v>
+        <v>-46.081000000000003</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38072</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>4208.3609999999999</v>
+        <v>1002.91</v>
       </c>
       <c r="U15">
-        <v>2641.8760000000002</v>
+        <v>548.23199999999997</v>
       </c>
       <c r="V15">
-        <v>116.577</v>
+        <v>-48.238999999999997</v>
       </c>
       <c r="W15">
-        <v>-22.48</v>
+        <v>-5.1559999999999997</v>
       </c>
       <c r="X15">
-        <v>391.20400000000001</v>
+        <v>-13.425000000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>65.438999999999993</v>
+        <v>22.376999999999999</v>
       </c>
       <c r="AA15">
-        <v>104.56</v>
+        <v>43.067999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38163</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>122.68899999999999</v>
+        <v>29.614000000000001</v>
       </c>
       <c r="D16">
-        <v>1213.857</v>
+        <v>440.11099999999999</v>
       </c>
       <c r="E16">
-        <v>2115.5819999999999</v>
+        <v>1987.761</v>
       </c>
       <c r="F16">
-        <v>1128.2940000000001</v>
+        <v>420.10399999999998</v>
       </c>
       <c r="G16">
-        <v>20950.260999999999</v>
+        <v>7021.5860000000002</v>
       </c>
       <c r="H16">
-        <v>23070.289000000001</v>
+        <v>7303.2420000000002</v>
       </c>
       <c r="I16">
-        <v>4494.0360000000001</v>
+        <v>4251.4219999999996</v>
       </c>
       <c r="J16">
-        <v>1235.019</v>
+        <v>195.047</v>
       </c>
       <c r="K16">
-        <v>1630.26</v>
+        <v>1423.6030000000001</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>7147.2219999999998</v>
+        <v>6075.3590000000004</v>
       </c>
       <c r="O16">
-        <v>18757.111000000001</v>
+        <v>6270.4059999999999</v>
       </c>
       <c r="P16">
-        <v>2865.279</v>
+        <v>1618.65</v>
       </c>
       <c r="Q16">
-        <v>203.881</v>
+        <v>121.182</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38163</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4313.1779999999999</v>
+        <v>1032.836</v>
       </c>
       <c r="U16">
-        <v>2845.7570000000001</v>
+        <v>669.41399999999999</v>
       </c>
       <c r="V16">
-        <v>317.827</v>
+        <v>117.419</v>
       </c>
       <c r="W16">
-        <v>-22.681999999999999</v>
+        <v>-5.149</v>
       </c>
       <c r="X16">
-        <v>300.29700000000003</v>
+        <v>3.3439999999999999</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>55.871000000000002</v>
+        <v>2.8690000000000002</v>
       </c>
       <c r="AA16">
-        <v>122.68899999999999</v>
+        <v>29.613</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38254</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>136.36600000000001</v>
+        <v>30.663</v>
       </c>
       <c r="D17">
-        <v>1274.6320000000001</v>
+        <v>446.71199999999999</v>
       </c>
       <c r="E17">
-        <v>2240.92</v>
+        <v>1400.425</v>
       </c>
       <c r="F17">
-        <v>1191.998</v>
+        <v>425.50099999999998</v>
       </c>
       <c r="G17">
-        <v>21167.599999999999</v>
+        <v>7320.2330000000002</v>
       </c>
       <c r="H17">
-        <v>23325.651999999998</v>
+        <v>7621.8459999999995</v>
       </c>
       <c r="I17">
-        <v>4867.3689999999997</v>
+        <v>3573.9760000000001</v>
       </c>
       <c r="J17">
-        <v>1716.98</v>
+        <v>174.22300000000001</v>
       </c>
       <c r="K17">
-        <v>1152.287</v>
+        <v>1614.347</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,164 +2137,164 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>7193.9160000000002</v>
+        <v>5656.5069999999996</v>
       </c>
       <c r="O17">
-        <v>18892.396000000001</v>
+        <v>6535.26</v>
       </c>
       <c r="P17">
-        <v>2887.2159999999999</v>
+        <v>1788.57</v>
       </c>
       <c r="Q17">
-        <v>-646.69399999999996</v>
+        <v>-140.59100000000001</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38254</v>
       </c>
       <c r="S17">
-        <v>10300</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>4433.2560000000003</v>
+        <v>1086.586</v>
       </c>
       <c r="U17">
-        <v>2199.0630000000001</v>
+        <v>528.82299999999998</v>
       </c>
       <c r="V17">
-        <v>56.667000000000002</v>
+        <v>38.798000000000002</v>
       </c>
       <c r="W17">
-        <v>-22.66</v>
+        <v>-5.944</v>
       </c>
       <c r="X17">
-        <v>-163.27600000000001</v>
+        <v>-25.535</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>39.258000000000003</v>
+        <v>-25.036999999999999</v>
       </c>
       <c r="AA17">
-        <v>136.36600000000001</v>
+        <v>30.663</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>126.29600000000001</v>
+        <v>39.243000000000002</v>
       </c>
       <c r="D18">
-        <v>1239.473</v>
+        <v>498.98500000000001</v>
       </c>
       <c r="E18">
-        <v>2083.8240000000001</v>
+        <v>2225.5569999999998</v>
       </c>
       <c r="F18">
-        <v>1156.6079999999999</v>
+        <v>477.46600000000001</v>
       </c>
       <c r="G18">
-        <v>22191.661</v>
+        <v>7677.6310000000003</v>
       </c>
       <c r="H18">
-        <v>24253.245999999999</v>
+        <v>7958.4960000000001</v>
       </c>
       <c r="I18">
-        <v>4684.3810000000003</v>
+        <v>5152.0309999999999</v>
       </c>
       <c r="J18">
-        <v>1724.519</v>
+        <v>168.36799999999999</v>
       </c>
       <c r="K18">
-        <v>1235.654</v>
+        <v>1064.5809999999999</v>
       </c>
       <c r="L18">
-        <v>-49.7</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>-10.974</v>
+        <v>-3.3260000000000001</v>
       </c>
       <c r="N18">
-        <v>6764.4030000000002</v>
+        <v>6645.8879999999999</v>
       </c>
       <c r="O18">
-        <v>19695.112000000001</v>
+        <v>6814.2560000000003</v>
       </c>
       <c r="P18">
-        <v>2960.1729999999998</v>
+        <v>1232.9490000000001</v>
       </c>
       <c r="Q18">
-        <v>450.322</v>
+        <v>90.793999999999997</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>4558.134</v>
+        <v>1144.24</v>
       </c>
       <c r="U18">
-        <v>2649.3850000000002</v>
+        <v>619.61699999999996</v>
       </c>
       <c r="V18">
-        <v>239.649</v>
+        <v>84.191999999999993</v>
       </c>
       <c r="W18">
-        <v>-23.626000000000001</v>
+        <v>-6.1859999999999999</v>
       </c>
       <c r="X18">
-        <v>989.52700000000004</v>
+        <v>20.715</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-0.13600000000000001</v>
+        <v>13.218</v>
       </c>
       <c r="AA18">
-        <v>126.29600000000001</v>
+        <v>39.243000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38435</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>113.46299999999999</v>
+        <v>34.697000000000003</v>
       </c>
       <c r="D19">
-        <v>1273.1579999999999</v>
+        <v>483.11799999999999</v>
       </c>
       <c r="E19">
-        <v>2045.578</v>
+        <v>2243.5990000000002</v>
       </c>
       <c r="F19">
-        <v>1176.9480000000001</v>
+        <v>461.517</v>
       </c>
       <c r="G19">
-        <v>22893.418000000001</v>
+        <v>7598.5309999999999</v>
       </c>
       <c r="H19">
-        <v>24967.935000000001</v>
+        <v>7891.1540000000005</v>
       </c>
       <c r="I19">
-        <v>4750.91</v>
+        <v>4956.5829999999996</v>
       </c>
       <c r="J19">
-        <v>1774.009</v>
+        <v>153.821</v>
       </c>
       <c r="K19">
-        <v>1294.9449999999999</v>
+        <v>1165.229</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,81 +2303,81 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>7155.7070000000003</v>
+        <v>6551.5370000000003</v>
       </c>
       <c r="O19">
-        <v>20316.025000000001</v>
+        <v>6705.3580000000002</v>
       </c>
       <c r="P19">
-        <v>3068.9540000000002</v>
+        <v>1319.05</v>
       </c>
       <c r="Q19">
-        <v>-109.248</v>
+        <v>47.997</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38435</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>4651.91</v>
+        <v>1185.796</v>
       </c>
       <c r="U19">
-        <v>2540.1370000000002</v>
+        <v>667.61400000000003</v>
       </c>
       <c r="V19">
-        <v>141.03700000000001</v>
+        <v>19.404</v>
       </c>
       <c r="W19">
-        <v>-25.779</v>
+        <v>-5.8789999999999996</v>
       </c>
       <c r="X19">
-        <v>286.37599999999998</v>
+        <v>114.45399999999999</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>5.5570000000000004</v>
+        <v>17.221</v>
       </c>
       <c r="AA19">
-        <v>113.46299999999999</v>
+        <v>34.697000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38527</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>133.19499999999999</v>
+        <v>32.381999999999998</v>
       </c>
       <c r="D20">
-        <v>1325.4179999999999</v>
+        <v>493.54399999999998</v>
       </c>
       <c r="E20">
-        <v>2287.6860000000001</v>
+        <v>2291.694</v>
       </c>
       <c r="F20">
-        <v>1231.21</v>
+        <v>470.08</v>
       </c>
       <c r="G20">
-        <v>22868.141</v>
+        <v>7559.11</v>
       </c>
       <c r="H20">
-        <v>24808.416000000001</v>
+        <v>7854.1769999999997</v>
       </c>
       <c r="I20">
-        <v>4978.9399999999996</v>
+        <v>4819.5020000000004</v>
       </c>
       <c r="J20">
-        <v>1513.8979999999999</v>
+        <v>141.845</v>
       </c>
       <c r="K20">
-        <v>1143.702</v>
+        <v>1223.1010000000001</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>7430.451</v>
+        <v>6499.5360000000001</v>
       </c>
       <c r="O20">
-        <v>20062.127</v>
+        <v>6641.3810000000003</v>
       </c>
       <c r="P20">
-        <v>2907.6</v>
+        <v>1364.9459999999999</v>
       </c>
       <c r="Q20">
-        <v>41.944000000000003</v>
+        <v>101.724</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38527</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>4746.2889999999998</v>
+        <v>1212.796</v>
       </c>
       <c r="U20">
-        <v>2582.0810000000001</v>
+        <v>799.68200000000002</v>
       </c>
       <c r="V20">
-        <v>84.1</v>
+        <v>154.72800000000001</v>
       </c>
       <c r="W20">
-        <v>-27.71</v>
+        <v>-7.6189999999999998</v>
       </c>
       <c r="X20">
-        <v>-366.608</v>
+        <v>46.073</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>144.59700000000001</v>
+        <v>-6.524</v>
       </c>
       <c r="AA20">
-        <v>133.19499999999999</v>
+        <v>32.381999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>129.18600000000001</v>
+        <v>44.723999999999997</v>
       </c>
       <c r="D21">
-        <v>1318.1320000000001</v>
+        <v>563.56100000000004</v>
       </c>
       <c r="E21">
-        <v>2327.1860000000001</v>
+        <v>1536.856</v>
       </c>
       <c r="F21">
-        <v>1222.702</v>
+        <v>539.13400000000001</v>
       </c>
       <c r="G21">
-        <v>24266.956999999999</v>
+        <v>7942.0379999999996</v>
       </c>
       <c r="H21">
-        <v>26468.031999999999</v>
+        <v>8369.2559999999994</v>
       </c>
       <c r="I21">
-        <v>5475.2690000000002</v>
+        <v>4054.1640000000002</v>
       </c>
       <c r="J21">
-        <v>1738.232</v>
+        <v>280.78399999999999</v>
       </c>
       <c r="K21">
-        <v>1343.35</v>
+        <v>1154.614</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,164 +2469,164 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>8064.5569999999998</v>
+        <v>5808.5929999999998</v>
       </c>
       <c r="O21">
-        <v>21681.934000000001</v>
+        <v>7036.402</v>
       </c>
       <c r="P21">
-        <v>3094.9450000000002</v>
+        <v>1440.518</v>
       </c>
       <c r="Q21">
-        <v>18.925000000000001</v>
+        <v>158.27000000000001</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>4786.098</v>
+        <v>1332.854</v>
       </c>
       <c r="U21">
-        <v>2601.0059999999999</v>
+        <v>881.13300000000004</v>
       </c>
       <c r="V21">
-        <v>434.39100000000002</v>
+        <v>151.59399999999999</v>
       </c>
       <c r="W21">
-        <v>-26.027999999999999</v>
+        <v>-6.6159999999999997</v>
       </c>
       <c r="X21">
-        <v>816.61</v>
+        <v>227.559</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-132.535</v>
+        <v>-79.497</v>
       </c>
       <c r="AA21">
-        <v>129.18600000000001</v>
+        <v>44.723999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>106.32899999999999</v>
+        <v>45.109000000000002</v>
       </c>
       <c r="D22">
-        <v>1254.69</v>
+        <v>529.58600000000001</v>
       </c>
       <c r="E22">
-        <v>2075.0309999999999</v>
+        <v>1558.808</v>
       </c>
       <c r="F22">
-        <v>1158.002</v>
+        <v>496.88400000000001</v>
       </c>
       <c r="G22">
-        <v>24764.260999999999</v>
+        <v>8617.4940000000006</v>
       </c>
       <c r="H22">
-        <v>26907.327000000001</v>
+        <v>9130.8109999999997</v>
       </c>
       <c r="I22">
-        <v>5401.2839999999997</v>
+        <v>4663.3130000000001</v>
       </c>
       <c r="J22">
-        <v>1530.3230000000001</v>
+        <v>282.25700000000001</v>
       </c>
       <c r="K22">
-        <v>1167.2059999999999</v>
+        <v>1321.9639999999999</v>
       </c>
       <c r="L22">
-        <v>-115</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>-1.091</v>
+        <v>-7.3739999999999997</v>
       </c>
       <c r="N22">
-        <v>7708.1949999999997</v>
+        <v>6329.6940000000004</v>
       </c>
       <c r="O22">
-        <v>21986.684000000001</v>
+        <v>7710.4830000000002</v>
       </c>
       <c r="P22">
-        <v>2947.529</v>
+        <v>1606.856</v>
       </c>
       <c r="Q22">
-        <v>-4.6180000000000003</v>
+        <v>-295.76</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>4920.643</v>
+        <v>1420.328</v>
       </c>
       <c r="U22">
-        <v>2596.3879999999999</v>
+        <v>676.20299999999997</v>
       </c>
       <c r="V22">
-        <v>247.97300000000001</v>
+        <v>-130.27500000000001</v>
       </c>
       <c r="W22">
-        <v>-27.106000000000002</v>
+        <v>-9.3140000000000001</v>
       </c>
       <c r="X22">
-        <v>621.77800000000002</v>
+        <v>184.148</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-80.724000000000004</v>
+        <v>-71.131</v>
       </c>
       <c r="AA22">
-        <v>106.32899999999999</v>
+        <v>45.109000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>125.84699999999999</v>
+        <v>61.530999999999999</v>
       </c>
       <c r="D23">
-        <v>1315.3420000000001</v>
+        <v>596.00699999999995</v>
       </c>
       <c r="E23">
-        <v>2379.8679999999999</v>
+        <v>1723.951</v>
       </c>
       <c r="F23">
-        <v>1222.0609999999999</v>
+        <v>562.96299999999997</v>
       </c>
       <c r="G23">
-        <v>25554.579000000002</v>
+        <v>9517.0709999999999</v>
       </c>
       <c r="H23">
-        <v>27753.210999999999</v>
+        <v>10072.204</v>
       </c>
       <c r="I23">
-        <v>6061.7179999999998</v>
+        <v>4801.223</v>
       </c>
       <c r="J23">
-        <v>1529.5650000000001</v>
+        <v>283.51299999999998</v>
       </c>
       <c r="K23">
-        <v>1225.961</v>
+        <v>1843.2860000000001</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,81 +2635,81 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>8614.4220000000005</v>
+        <v>7053.777</v>
       </c>
       <c r="O23">
-        <v>22875.972000000002</v>
+        <v>8582.0259999999998</v>
       </c>
       <c r="P23">
-        <v>3005.5259999999998</v>
+        <v>2129.4749999999999</v>
       </c>
       <c r="Q23">
-        <v>-1116.6020000000001</v>
+        <v>9.1880000000000006</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>4877.2389999999996</v>
+        <v>1490.1780000000001</v>
       </c>
       <c r="U23">
-        <v>1479.7860000000001</v>
+        <v>850.875</v>
       </c>
       <c r="V23">
-        <v>-305.47199999999998</v>
+        <v>-22.45</v>
       </c>
       <c r="W23">
-        <v>-29.045999999999999</v>
+        <v>-9.0570000000000004</v>
       </c>
       <c r="X23">
-        <v>-88.47</v>
+        <v>417.03</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-23.332000000000001</v>
+        <v>-33.622999999999998</v>
       </c>
       <c r="AA23">
-        <v>125.84699999999999</v>
+        <v>61.530999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>125.504</v>
+        <v>56.774000000000001</v>
       </c>
       <c r="D24">
-        <v>1355.654</v>
+        <v>632.976</v>
       </c>
       <c r="E24">
-        <v>2321.1120000000001</v>
+        <v>1750.99</v>
       </c>
       <c r="F24">
-        <v>1258.693</v>
+        <v>613.57899999999995</v>
       </c>
       <c r="G24">
-        <v>26676.791000000001</v>
+        <v>10247.66</v>
       </c>
       <c r="H24">
-        <v>28843.431</v>
+        <v>10790.768</v>
       </c>
       <c r="I24">
-        <v>5940.7460000000001</v>
+        <v>4879.9129999999996</v>
       </c>
       <c r="J24">
-        <v>1621.529</v>
+        <v>280.74</v>
       </c>
       <c r="K24">
-        <v>1477.383</v>
+        <v>2105.9960000000001</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>8523.4320000000007</v>
+        <v>7497.51</v>
       </c>
       <c r="O24">
-        <v>23849.300999999999</v>
+        <v>9226.6540000000005</v>
       </c>
       <c r="P24">
-        <v>3098.9119999999998</v>
+        <v>2389.4479999999999</v>
       </c>
       <c r="Q24">
-        <v>498.27100000000002</v>
+        <v>37.350999999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>4994.13</v>
+        <v>1564.114</v>
       </c>
       <c r="U24">
-        <v>1978.057</v>
+        <v>631.91200000000003</v>
       </c>
       <c r="V24">
-        <v>17.065999999999999</v>
+        <v>94.055000000000007</v>
       </c>
       <c r="W24">
-        <v>-28.844999999999999</v>
+        <v>-9.4700000000000006</v>
       </c>
       <c r="X24">
-        <v>954.19899999999996</v>
+        <v>213.827</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>24.951000000000001</v>
+        <v>25.725000000000001</v>
       </c>
       <c r="AA24">
-        <v>125.504</v>
+        <v>56.774000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>171.67</v>
+        <v>50.927999999999997</v>
       </c>
       <c r="D25">
-        <v>1453.873</v>
+        <v>590.33900000000006</v>
       </c>
       <c r="E25">
-        <v>3102.5459999999998</v>
+        <v>1715.05</v>
       </c>
       <c r="F25">
-        <v>1358.395</v>
+        <v>571.11699999999996</v>
       </c>
       <c r="G25">
-        <v>28713.514999999999</v>
+        <v>10641.069</v>
       </c>
       <c r="H25">
-        <v>31486.975999999999</v>
+        <v>11516.65</v>
       </c>
       <c r="I25">
-        <v>6750.79</v>
+        <v>4769.9639999999999</v>
       </c>
       <c r="J25">
-        <v>2289.2449999999999</v>
+        <v>286.71199999999999</v>
       </c>
       <c r="K25">
-        <v>1346.598</v>
+        <v>1549.2539999999999</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,164 +2801,164 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9430.5689999999995</v>
+        <v>6938.5249999999996</v>
       </c>
       <c r="O25">
-        <v>26424</v>
+        <v>9897.8700000000008</v>
       </c>
       <c r="P25">
-        <v>3635.8429999999998</v>
+        <v>1871.499</v>
       </c>
       <c r="Q25">
-        <v>-327.60500000000002</v>
+        <v>44.165999999999997</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>11900</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>5062.9759999999997</v>
+        <v>1618.78</v>
       </c>
       <c r="U25">
-        <v>1650.452</v>
+        <v>392.41800000000001</v>
       </c>
       <c r="V25">
-        <v>-532.88499999999999</v>
+        <v>55.286999999999999</v>
       </c>
       <c r="W25">
-        <v>-28.437999999999999</v>
+        <v>-9.7289999999999992</v>
       </c>
       <c r="X25">
-        <v>1052.972</v>
+        <v>1024.0329999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-316.69099999999997</v>
+        <v>-629.97</v>
       </c>
       <c r="AA25">
-        <v>171.67</v>
+        <v>50.927999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>146.56700000000001</v>
+        <v>59.395000000000003</v>
       </c>
       <c r="D26">
-        <v>1485.9280000000001</v>
+        <v>603.9</v>
       </c>
       <c r="E26">
-        <v>2778.6370000000002</v>
+        <v>1744.248</v>
       </c>
       <c r="F26">
-        <v>1394.472</v>
+        <v>585.298</v>
       </c>
       <c r="G26">
-        <v>28748.738000000001</v>
+        <v>11681.852000000001</v>
       </c>
       <c r="H26">
-        <v>31669.39</v>
+        <v>12276.177</v>
       </c>
       <c r="I26">
-        <v>6712.4539999999997</v>
+        <v>5334.393</v>
       </c>
       <c r="J26">
-        <v>2388.4780000000001</v>
+        <v>255.65899999999999</v>
       </c>
       <c r="K26">
-        <v>1201.289</v>
+        <v>1420.7380000000001</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>-1.1379999999999999</v>
+        <v>-25.591000000000001</v>
       </c>
       <c r="N26">
-        <v>8882.3240000000005</v>
+        <v>7335.0479999999998</v>
       </c>
       <c r="O26">
-        <v>26464.789000000001</v>
+        <v>10532.106</v>
       </c>
       <c r="P26">
-        <v>3589.7669999999998</v>
+        <v>1679.18</v>
       </c>
       <c r="Q26">
-        <v>877.82299999999998</v>
+        <v>-38.124000000000002</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>5204.6009999999997</v>
+        <v>1744.0709999999999</v>
       </c>
       <c r="U26">
-        <v>2528.2750000000001</v>
+        <v>565.04600000000005</v>
       </c>
       <c r="V26">
-        <v>807.29899999999998</v>
+        <v>-252.14599999999999</v>
       </c>
       <c r="W26">
-        <v>-31.254999999999999</v>
+        <v>-11.824999999999999</v>
       </c>
       <c r="X26">
-        <v>1174.778</v>
+        <v>520.17899999999997</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-313.27999999999997</v>
+        <v>129.27099999999999</v>
       </c>
       <c r="AA26">
-        <v>146.56700000000001</v>
+        <v>59.395000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>112.755</v>
+        <v>59.715000000000003</v>
       </c>
       <c r="D27">
-        <v>1557.9870000000001</v>
+        <v>625.71900000000005</v>
       </c>
       <c r="E27">
-        <v>2819.5479999999998</v>
+        <v>1871.9760000000001</v>
       </c>
       <c r="F27">
-        <v>1464.1420000000001</v>
+        <v>607.33500000000004</v>
       </c>
       <c r="G27">
-        <v>29420.998</v>
+        <v>13559.752</v>
       </c>
       <c r="H27">
-        <v>32928.731</v>
+        <v>14165.369000000001</v>
       </c>
       <c r="I27">
-        <v>6861.9179999999997</v>
+        <v>5504.0659999999998</v>
       </c>
       <c r="J27">
-        <v>2045.9490000000001</v>
+        <v>265.91800000000001</v>
       </c>
       <c r="K27">
-        <v>1024.816</v>
+        <v>1416.7180000000001</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,81 +2967,81 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>9169.5220000000008</v>
+        <v>7523.4279999999999</v>
       </c>
       <c r="O27">
-        <v>27600.513999999999</v>
+        <v>12356.539000000001</v>
       </c>
       <c r="P27">
-        <v>3070.7649999999999</v>
+        <v>1685.2909999999999</v>
       </c>
       <c r="Q27">
-        <v>108.051</v>
+        <v>73.102000000000004</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>5328.2169999999996</v>
+        <v>1808.83</v>
       </c>
       <c r="U27">
-        <v>2636.326</v>
+        <v>660.47799999999995</v>
       </c>
       <c r="V27">
-        <v>227.952</v>
+        <v>124.649</v>
       </c>
       <c r="W27">
-        <v>-31.771999999999998</v>
+        <v>-11.973000000000001</v>
       </c>
       <c r="X27">
-        <v>666.17</v>
+        <v>1703.624</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-550.14099999999996</v>
+        <v>-1437.462</v>
       </c>
       <c r="AA27">
-        <v>112.755</v>
+        <v>59.715000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>183.42400000000001</v>
+        <v>68.352999999999994</v>
       </c>
       <c r="D28">
-        <v>1629.8109999999999</v>
+        <v>688.66</v>
       </c>
       <c r="E28">
-        <v>2916.44</v>
+        <v>2157.7240000000002</v>
       </c>
       <c r="F28">
-        <v>1531.8589999999999</v>
+        <v>668.36900000000003</v>
       </c>
       <c r="G28">
-        <v>29617.645</v>
+        <v>14524.807000000001</v>
       </c>
       <c r="H28">
-        <v>33433.425999999999</v>
+        <v>15671.200999999999</v>
       </c>
       <c r="I28">
-        <v>6611.0290000000005</v>
+        <v>5700.8109999999997</v>
       </c>
       <c r="J28">
-        <v>2653.2190000000001</v>
+        <v>227.858</v>
       </c>
       <c r="K28">
-        <v>983.572</v>
+        <v>2136.4520000000002</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>8803.1329999999998</v>
+        <v>8631.8279999999995</v>
       </c>
       <c r="O28">
-        <v>27932.675999999999</v>
+        <v>13749.681</v>
       </c>
       <c r="P28">
-        <v>3636.7910000000002</v>
+        <v>2367.0030000000002</v>
       </c>
       <c r="Q28">
-        <v>-20.847000000000001</v>
+        <v>16.187000000000001</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>5500.75</v>
+        <v>1921.52</v>
       </c>
       <c r="U28">
-        <v>2615.4789999999998</v>
+        <v>745.00300000000004</v>
       </c>
       <c r="V28">
-        <v>292.83600000000001</v>
+        <v>-89.673000000000002</v>
       </c>
       <c r="W28">
-        <v>-32.295000000000002</v>
+        <v>-12.613</v>
       </c>
       <c r="X28">
-        <v>461.30599999999998</v>
+        <v>400.56099999999998</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-296.97500000000002</v>
+        <v>128.91900000000001</v>
       </c>
       <c r="AA28">
-        <v>183.42400000000001</v>
+        <v>68.352999999999994</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>193.489</v>
+        <v>62.966999999999999</v>
       </c>
       <c r="D29">
-        <v>1704.345</v>
+        <v>662.226</v>
       </c>
       <c r="E29">
-        <v>3039.7919999999999</v>
+        <v>1933.165</v>
       </c>
       <c r="F29">
-        <v>1597.981</v>
+        <v>641.30499999999995</v>
       </c>
       <c r="G29">
-        <v>30235.262999999999</v>
+        <v>15034.972</v>
       </c>
       <c r="H29">
-        <v>34883.455999999998</v>
+        <v>16254.168</v>
       </c>
       <c r="I29">
-        <v>5584.5429999999997</v>
+        <v>6247.366</v>
       </c>
       <c r="J29">
-        <v>2452.8510000000001</v>
+        <v>214.864</v>
       </c>
       <c r="K29">
-        <v>1571.8589999999999</v>
+        <v>400.96699999999998</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,164 +3133,164 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>8549.5280000000002</v>
+        <v>7182.6589999999997</v>
       </c>
       <c r="O29">
-        <v>29190.105</v>
+        <v>14266.683999999999</v>
       </c>
       <c r="P29">
-        <v>4024.71</v>
+        <v>632.40099999999995</v>
       </c>
       <c r="Q29">
-        <v>1054.193</v>
+        <v>201.36</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>12700</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>5693.3509999999997</v>
+        <v>1987.4839999999999</v>
       </c>
       <c r="U29">
-        <v>3669.672</v>
+        <v>644.94299999999998</v>
       </c>
       <c r="V29">
-        <v>-22.151</v>
+        <v>654.35299999999995</v>
       </c>
       <c r="W29">
-        <v>-31.88</v>
+        <v>-12.077</v>
       </c>
       <c r="X29">
-        <v>1762.309</v>
+        <v>118.1</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-179.27699999999999</v>
+        <v>406.88600000000002</v>
       </c>
       <c r="AA29">
-        <v>193.489</v>
+        <v>62.966999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>119</v>
+        <v>56.241999999999997</v>
       </c>
       <c r="D30">
-        <v>1726</v>
+        <v>673.00699999999995</v>
       </c>
       <c r="E30">
-        <v>2890.3040000000001</v>
+        <v>2025.876</v>
       </c>
       <c r="F30">
-        <v>1624</v>
+        <v>651.49099999999999</v>
       </c>
       <c r="G30">
-        <v>31005.591</v>
+        <v>15864.619000000001</v>
       </c>
       <c r="H30">
-        <v>36084.898999999998</v>
+        <v>17097.718000000001</v>
       </c>
       <c r="I30">
-        <v>6009.491</v>
+        <v>6627.0190000000002</v>
       </c>
       <c r="J30">
-        <v>2751.8009999999999</v>
+        <v>220.05199999999999</v>
       </c>
       <c r="K30">
-        <v>1205.848</v>
+        <v>1451.902</v>
       </c>
       <c r="L30">
-        <v>-280</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>-10.045999999999999</v>
       </c>
       <c r="N30">
-        <v>8317.2029999999995</v>
+        <v>8617.0130000000008</v>
       </c>
       <c r="O30">
-        <v>30281.944</v>
+        <v>15043.925999999999</v>
       </c>
       <c r="P30">
-        <v>3957.6489999999999</v>
+        <v>1674.7239999999999</v>
       </c>
       <c r="Q30">
-        <v>321</v>
+        <v>34.877000000000002</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>5802.9549999999999</v>
+        <v>2053.7919999999999</v>
       </c>
       <c r="U30">
-        <v>3897.529</v>
+        <v>679.82</v>
       </c>
       <c r="V30">
-        <v>422</v>
+        <v>76.61</v>
       </c>
       <c r="W30">
-        <v>-32</v>
+        <v>-13.356999999999999</v>
       </c>
       <c r="X30">
-        <v>980</v>
+        <v>621.65200000000004</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-226</v>
+        <v>590.70799999999997</v>
       </c>
       <c r="AA30">
-        <v>119</v>
+        <v>56.241999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>243</v>
+        <v>59.79</v>
       </c>
       <c r="D31">
-        <v>1794</v>
+        <v>680.57399999999996</v>
       </c>
       <c r="E31">
-        <v>3163.2649999999999</v>
+        <v>1884.5170000000001</v>
       </c>
       <c r="F31">
-        <v>1678</v>
+        <v>660.91800000000001</v>
       </c>
       <c r="G31">
-        <v>30766.534</v>
+        <v>16754.223000000002</v>
       </c>
       <c r="H31">
-        <v>36030.870999999999</v>
+        <v>18081.868999999999</v>
       </c>
       <c r="I31">
-        <v>6249.616</v>
+        <v>6522.9129999999996</v>
       </c>
       <c r="J31">
-        <v>2450.7159999999999</v>
+        <v>220.79</v>
       </c>
       <c r="K31">
-        <v>747.94200000000001</v>
+        <v>1202.105</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,81 +3299,81 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>8346.1859999999997</v>
+        <v>8136.0919999999996</v>
       </c>
       <c r="O31">
-        <v>29988.649000000001</v>
+        <v>16075.314</v>
       </c>
       <c r="P31">
-        <v>3198.6579999999999</v>
+        <v>1425.932</v>
       </c>
       <c r="Q31">
-        <v>-1248</v>
+        <v>146.68199999999999</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>6042.2219999999998</v>
+        <v>2006.5550000000001</v>
       </c>
       <c r="U31">
-        <v>3139.9380000000001</v>
+        <v>826.50199999999995</v>
       </c>
       <c r="V31">
-        <v>184</v>
+        <v>-8.1859999999999999</v>
       </c>
       <c r="W31">
-        <v>-39</v>
+        <v>-13.635</v>
       </c>
       <c r="X31">
-        <v>-668</v>
+        <v>1639.943</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-195</v>
+        <v>-882.61900000000003</v>
       </c>
       <c r="AA31">
-        <v>243</v>
+        <v>59.79</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>232</v>
+        <v>69.938000000000002</v>
       </c>
       <c r="D32">
-        <v>1817</v>
+        <v>729.65800000000002</v>
       </c>
       <c r="E32">
-        <v>3140.6860000000001</v>
+        <v>2107.3960000000002</v>
       </c>
       <c r="F32">
-        <v>1705</v>
+        <v>708.69200000000001</v>
       </c>
       <c r="G32">
-        <v>31020.897000000001</v>
+        <v>16988.663</v>
       </c>
       <c r="H32">
-        <v>36364.108999999997</v>
+        <v>18279.187999999998</v>
       </c>
       <c r="I32">
-        <v>5262.1459999999997</v>
+        <v>6201.3879999999999</v>
       </c>
       <c r="J32">
-        <v>2449.819</v>
+        <v>211.268</v>
       </c>
       <c r="K32">
-        <v>794.34</v>
+        <v>1465.895</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>7471.6880000000001</v>
+        <v>8229.7009999999991</v>
       </c>
       <c r="O32">
-        <v>30114.058000000001</v>
+        <v>16192.316000000001</v>
       </c>
       <c r="P32">
-        <v>3244.1590000000001</v>
+        <v>1679.9960000000001</v>
       </c>
       <c r="Q32">
-        <v>-352</v>
+        <v>-156.96100000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>6250.0510000000004</v>
+        <v>2086.8719999999998</v>
       </c>
       <c r="U32">
-        <v>3179.7510000000002</v>
+        <v>669.54100000000005</v>
       </c>
       <c r="V32">
-        <v>-382</v>
+        <v>58.470999999999997</v>
       </c>
       <c r="W32">
-        <v>-36</v>
+        <v>-13.234999999999999</v>
       </c>
       <c r="X32">
-        <v>730</v>
+        <v>6.2569999999999997</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-118</v>
+        <v>338.52300000000002</v>
       </c>
       <c r="AA32">
-        <v>232</v>
+        <v>69.938000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>263</v>
+        <v>49.107999999999997</v>
       </c>
       <c r="D33">
-        <v>1899</v>
+        <v>674.71500000000003</v>
       </c>
       <c r="E33">
-        <v>3600</v>
+        <v>2037.3050000000001</v>
       </c>
       <c r="F33">
-        <v>1785</v>
+        <v>654.74300000000005</v>
       </c>
       <c r="G33">
-        <v>32185</v>
+        <v>19318.263999999999</v>
       </c>
       <c r="H33">
-        <v>37413</v>
+        <v>20709.616000000002</v>
       </c>
       <c r="I33">
-        <v>5831</v>
+        <v>6201.9390000000003</v>
       </c>
       <c r="J33">
-        <v>2449</v>
+        <v>200.80099999999999</v>
       </c>
       <c r="K33">
-        <v>856</v>
+        <v>2918.4670000000001</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,164 +3465,164 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>8321</v>
+        <v>9736.6319999999996</v>
       </c>
       <c r="O33">
-        <v>30961</v>
+        <v>18588.388999999999</v>
       </c>
       <c r="P33">
-        <v>3305</v>
+        <v>3133.2550000000001</v>
       </c>
       <c r="Q33">
-        <v>74</v>
+        <v>2537.9520000000002</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>13900</v>
+        <v>6900</v>
       </c>
       <c r="T33">
-        <v>6452</v>
+        <v>2121.2269999999999</v>
       </c>
       <c r="U33">
-        <v>3500</v>
+        <v>3207.4929999999999</v>
       </c>
       <c r="V33">
-        <v>660</v>
+        <v>8.7629999999999999</v>
       </c>
       <c r="W33">
-        <v>-44</v>
+        <v>-12.923999999999999</v>
       </c>
       <c r="X33">
-        <v>378</v>
+        <v>2944.86</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-45</v>
+        <v>-152.09100000000001</v>
       </c>
       <c r="AA33">
-        <v>263</v>
+        <v>49.107999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>249</v>
+        <v>61.093000000000004</v>
       </c>
       <c r="D34">
-        <v>1889</v>
+        <v>639.16099999999994</v>
       </c>
       <c r="E34">
-        <v>3112</v>
+        <v>1382.2449999999999</v>
       </c>
       <c r="F34">
-        <v>1773</v>
+        <v>620.851</v>
       </c>
       <c r="G34">
-        <v>33092</v>
+        <v>16927.465</v>
       </c>
       <c r="H34">
-        <v>38544</v>
+        <v>18282.315999999999</v>
       </c>
       <c r="I34">
-        <v>5376</v>
+        <v>6143.9660000000003</v>
       </c>
       <c r="J34">
-        <v>2748</v>
+        <v>203.27799999999999</v>
       </c>
       <c r="K34">
-        <v>718</v>
+        <v>659.87099999999998</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>-1</v>
+        <v>-2060.076</v>
       </c>
       <c r="N34">
-        <v>7345</v>
+        <v>7170.1180000000004</v>
       </c>
       <c r="O34">
-        <v>32319</v>
+        <v>16172.081</v>
       </c>
       <c r="P34">
-        <v>3466</v>
+        <v>865.84299999999996</v>
       </c>
       <c r="Q34">
-        <v>1163</v>
+        <v>-2726.511</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>6225</v>
+        <v>2110.2350000000001</v>
       </c>
       <c r="U34">
-        <v>4322</v>
+        <v>480.98200000000003</v>
       </c>
       <c r="V34">
-        <v>225</v>
+        <v>273.83499999999998</v>
       </c>
       <c r="W34">
-        <v>-47</v>
+        <v>-13.365</v>
       </c>
       <c r="X34">
-        <v>1526</v>
+        <v>-2001.424</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-140</v>
+        <v>-346.55700000000002</v>
       </c>
       <c r="AA34">
-        <v>249</v>
+        <v>61.093000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>261</v>
+        <v>6.093</v>
       </c>
       <c r="D35">
-        <v>1858</v>
+        <v>510.03699999999998</v>
       </c>
       <c r="E35">
-        <v>3068</v>
+        <v>1298.7159999999999</v>
       </c>
       <c r="F35">
-        <v>1742</v>
+        <v>495.351</v>
       </c>
       <c r="G35">
-        <v>32521</v>
+        <v>16737.094000000001</v>
       </c>
       <c r="H35">
-        <v>38176</v>
+        <v>18117.544999999998</v>
       </c>
       <c r="I35">
-        <v>4675</v>
+        <v>6478.4859999999999</v>
       </c>
       <c r="J35">
-        <v>2446</v>
+        <v>203.79599999999999</v>
       </c>
       <c r="K35">
-        <v>1167</v>
+        <v>641.548</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,81 +3631,81 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>7329</v>
+        <v>7438.48</v>
       </c>
       <c r="O35">
-        <v>31741</v>
+        <v>16018.438</v>
       </c>
       <c r="P35">
-        <v>3613</v>
+        <v>848.077</v>
       </c>
       <c r="Q35">
-        <v>-985</v>
+        <v>-163.79</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>6435</v>
+        <v>2099.107</v>
       </c>
       <c r="U35">
-        <v>3831</v>
+        <v>317.19200000000001</v>
       </c>
       <c r="V35">
-        <v>-205</v>
+        <v>-100.268</v>
       </c>
       <c r="W35">
-        <v>-48</v>
+        <v>-13.513</v>
       </c>
       <c r="X35">
-        <v>-427</v>
+        <v>-350.31900000000002</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>-74</v>
+        <v>295.19099999999997</v>
       </c>
       <c r="AA35">
-        <v>261</v>
+        <v>6.093</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>259</v>
+        <v>42.594999999999999</v>
       </c>
       <c r="D36">
-        <v>1940</v>
+        <v>599.68200000000002</v>
       </c>
       <c r="E36">
-        <v>2887</v>
+        <v>1512.741</v>
       </c>
       <c r="F36">
-        <v>1824</v>
+        <v>586.25599999999997</v>
       </c>
       <c r="G36">
-        <v>32926</v>
+        <v>16386.839</v>
       </c>
       <c r="H36">
-        <v>38677</v>
+        <v>17830.830000000002</v>
       </c>
       <c r="I36">
-        <v>4517</v>
+        <v>6846.6509999999998</v>
       </c>
       <c r="J36">
-        <v>2445</v>
+        <v>194.84899999999999</v>
       </c>
       <c r="K36">
-        <v>919</v>
+        <v>84.549000000000007</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>7011</v>
+        <v>7239.8159999999998</v>
       </c>
       <c r="O36">
-        <v>32113</v>
+        <v>15656.955</v>
       </c>
       <c r="P36">
-        <v>3364</v>
+        <v>282.43</v>
       </c>
       <c r="Q36">
-        <v>-167</v>
+        <v>222.154</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>6564</v>
+        <v>2173.875</v>
       </c>
       <c r="U36">
-        <v>3596</v>
+        <v>539.346</v>
       </c>
       <c r="V36">
-        <v>-121</v>
+        <v>230.73400000000001</v>
       </c>
       <c r="W36">
-        <v>-48</v>
+        <v>-13.586</v>
       </c>
       <c r="X36">
-        <v>411</v>
+        <v>-857.15800000000002</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>-19</v>
+        <v>-14.068</v>
       </c>
       <c r="AA36">
-        <v>259</v>
+        <v>42.594999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>265</v>
+        <v>42.969000000000001</v>
       </c>
       <c r="D37">
-        <v>2006</v>
+        <v>627.56700000000001</v>
       </c>
       <c r="E37">
-        <v>2671</v>
+        <v>1501.7460000000001</v>
       </c>
       <c r="F37">
-        <v>1887</v>
+        <v>612.98699999999997</v>
       </c>
       <c r="G37">
-        <v>33106</v>
+        <v>16645.707999999999</v>
       </c>
       <c r="H37">
-        <v>38830</v>
+        <v>18226.727999999999</v>
       </c>
       <c r="I37">
-        <v>4361</v>
+        <v>4115.2709999999997</v>
       </c>
       <c r="J37">
-        <v>2444</v>
+        <v>480.49799999999999</v>
       </c>
       <c r="K37">
-        <v>786</v>
+        <v>1531.855</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,164 +3797,164 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>6982</v>
+        <v>6083.9759999999997</v>
       </c>
       <c r="O37">
-        <v>32187</v>
+        <v>15993.589</v>
       </c>
       <c r="P37">
-        <v>3230</v>
+        <v>2025.133</v>
       </c>
       <c r="Q37">
-        <v>19</v>
+        <v>1766.739</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>14200</v>
+        <v>7100</v>
       </c>
       <c r="T37">
-        <v>6643</v>
+        <v>2233.1390000000001</v>
       </c>
       <c r="U37">
-        <v>3957</v>
+        <v>2306.085</v>
       </c>
       <c r="V37">
-        <v>678</v>
+        <v>-30.141999999999999</v>
       </c>
       <c r="W37">
-        <v>-48</v>
+        <v>-13.676</v>
       </c>
       <c r="X37">
-        <v>-137</v>
+        <v>2967.085</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>-150</v>
+        <v>-27.422000000000001</v>
       </c>
       <c r="AA37">
-        <v>265</v>
+        <v>42.969000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>268</v>
+        <v>42.902999999999999</v>
       </c>
       <c r="D38">
-        <v>2022</v>
+        <v>664.471</v>
       </c>
       <c r="E38">
-        <v>2689</v>
+        <v>1574.258</v>
       </c>
       <c r="F38">
-        <v>1902</v>
+        <v>649.41099999999994</v>
       </c>
       <c r="G38">
-        <v>33722</v>
+        <v>13213.197</v>
       </c>
       <c r="H38">
-        <v>40154</v>
+        <v>14691.995000000001</v>
       </c>
       <c r="I38">
-        <v>5020</v>
+        <v>3521.3139999999999</v>
       </c>
       <c r="J38">
-        <v>2443</v>
+        <v>470.10300000000001</v>
       </c>
       <c r="K38">
-        <v>751</v>
+        <v>1053.038</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>-851</v>
+        <v>-939.26499999999999</v>
       </c>
       <c r="N38">
-        <v>7330</v>
+        <v>4981.7920000000004</v>
       </c>
       <c r="O38">
-        <v>33251</v>
+        <v>12375.906000000001</v>
       </c>
       <c r="P38">
-        <v>3543</v>
+        <v>1523.1410000000001</v>
       </c>
       <c r="Q38">
-        <v>719</v>
+        <v>-1287.5</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>6903</v>
+        <v>2316.0889999999999</v>
       </c>
       <c r="U38">
-        <v>4109</v>
+        <v>1018.585</v>
       </c>
       <c r="V38">
-        <v>546</v>
+        <v>-138.51499999999999</v>
       </c>
       <c r="W38">
-        <v>-51</v>
+        <v>-13.686</v>
       </c>
       <c r="X38">
-        <v>654</v>
+        <v>-3340.181</v>
       </c>
       <c r="Y38">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-108</v>
+        <v>18.141999999999999</v>
       </c>
       <c r="AA38">
-        <v>268</v>
+        <v>42.902999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>169</v>
+        <v>55.628</v>
       </c>
       <c r="D39">
-        <v>1916</v>
+        <v>714.40899999999999</v>
       </c>
       <c r="E39">
-        <v>2936</v>
+        <v>1684.8320000000001</v>
       </c>
       <c r="F39">
-        <v>1791</v>
+        <v>666.30899999999997</v>
       </c>
       <c r="G39">
-        <v>42517</v>
+        <v>13805.224</v>
       </c>
       <c r="H39">
-        <v>49809</v>
+        <v>15277.15</v>
       </c>
       <c r="I39">
-        <v>7360</v>
+        <v>3821.643</v>
       </c>
       <c r="J39">
-        <v>2935</v>
+        <v>440.44600000000003</v>
       </c>
       <c r="K39">
-        <v>670</v>
+        <v>1416.8589999999999</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,81 +3963,81 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>9387</v>
+        <v>5784.1289999999999</v>
       </c>
       <c r="O39">
-        <v>42975</v>
+        <v>12881.334000000001</v>
       </c>
       <c r="P39">
-        <v>3956</v>
+        <v>1907.3050000000001</v>
       </c>
       <c r="Q39">
-        <v>8003</v>
+        <v>-89.599000000000004</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>6834</v>
+        <v>2395.8159999999998</v>
       </c>
       <c r="U39">
-        <v>10648</v>
+        <v>928.98599999999999</v>
       </c>
       <c r="V39">
-        <v>2397</v>
+        <v>86.272999999999996</v>
       </c>
       <c r="W39">
-        <v>-52</v>
+        <v>-14.71</v>
       </c>
       <c r="X39">
-        <v>7297</v>
+        <v>-278.613</v>
       </c>
       <c r="Y39">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-860</v>
+        <v>40.045999999999999</v>
       </c>
       <c r="AA39">
-        <v>169</v>
+        <v>55.628</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>172</v>
+        <v>60.686999999999998</v>
       </c>
       <c r="D40">
-        <v>1772</v>
+        <v>730.25</v>
       </c>
       <c r="E40">
-        <v>2818</v>
+        <v>1701.6579999999999</v>
       </c>
       <c r="F40">
-        <v>1649</v>
+        <v>683.78700000000003</v>
       </c>
       <c r="G40">
-        <v>35792</v>
+        <v>13450.403</v>
       </c>
       <c r="H40">
-        <v>44682</v>
+        <v>14880.179</v>
       </c>
       <c r="I40">
-        <v>6145</v>
+        <v>3631.6060000000002</v>
       </c>
       <c r="J40">
-        <v>2909</v>
+        <v>432.19400000000002</v>
       </c>
       <c r="K40">
-        <v>710</v>
+        <v>1453.329</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>8462</v>
+        <v>5577.6480000000001</v>
       </c>
       <c r="O40">
-        <v>37667</v>
+        <v>12414.259</v>
       </c>
       <c r="P40">
-        <v>3995</v>
+        <v>1885.5229999999999</v>
       </c>
       <c r="Q40">
-        <v>-5856</v>
+        <v>-62.79</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>7015</v>
+        <v>2465.92</v>
       </c>
       <c r="U40">
-        <v>5632</v>
+        <v>866.19600000000003</v>
       </c>
       <c r="V40">
-        <v>-288</v>
+        <v>70.646000000000001</v>
       </c>
       <c r="W40">
-        <v>-51</v>
+        <v>-13.804</v>
       </c>
       <c r="X40">
-        <v>-4693</v>
+        <v>-258.71499999999997</v>
       </c>
       <c r="Y40">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-1213</v>
+        <v>25.414999999999999</v>
       </c>
       <c r="AA40">
-        <v>172</v>
+        <v>60.686999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>209</v>
+        <v>69.064999999999998</v>
       </c>
       <c r="D41">
-        <v>2047</v>
+        <v>727.12099999999998</v>
       </c>
       <c r="E41">
-        <v>2435</v>
+        <v>1819.529</v>
       </c>
       <c r="F41">
-        <v>1921</v>
+        <v>681.03800000000001</v>
       </c>
       <c r="G41">
-        <v>36699</v>
+        <v>16266.713</v>
       </c>
       <c r="H41">
-        <v>47482</v>
+        <v>17883.080999999998</v>
       </c>
       <c r="I41">
-        <v>6792</v>
+        <v>3680.1239999999998</v>
       </c>
       <c r="J41">
-        <v>2903</v>
+        <v>419.62400000000002</v>
       </c>
       <c r="K41">
-        <v>643</v>
+        <v>3490.663</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>9516</v>
+        <v>7734.66</v>
       </c>
       <c r="O41">
-        <v>40306</v>
+        <v>15286.213</v>
       </c>
       <c r="P41">
-        <v>3921</v>
+        <v>3923.0909999999999</v>
       </c>
       <c r="Q41">
-        <v>797</v>
+        <v>2077.0430000000001</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>14800</v>
+        <v>7200</v>
       </c>
       <c r="T41">
-        <v>7176</v>
+        <v>2596.8679999999999</v>
       </c>
       <c r="U41">
-        <v>5390</v>
+        <v>2943.239</v>
       </c>
       <c r="V41">
-        <v>1399</v>
+        <v>-1039.797</v>
       </c>
       <c r="W41">
-        <v>-51</v>
+        <v>-13.808999999999999</v>
       </c>
       <c r="X41">
-        <v>1335</v>
+        <v>3165.3310000000001</v>
       </c>
       <c r="Y41">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-2119</v>
+        <v>2.81</v>
       </c>
       <c r="AA41">
-        <v>209</v>
+        <v>69.064999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>81.722999999999999</v>
+      </c>
+      <c r="D42">
+        <v>802.59699999999998</v>
+      </c>
+      <c r="E42">
+        <v>1744.2329999999999</v>
+      </c>
+      <c r="F42">
+        <v>754.63099999999997</v>
+      </c>
+      <c r="G42">
+        <v>13395.047</v>
+      </c>
+      <c r="H42">
+        <v>14849.838</v>
+      </c>
+      <c r="I42">
+        <v>3734.4349999999999</v>
+      </c>
+      <c r="J42">
+        <v>462.60599999999999</v>
+      </c>
+      <c r="K42">
+        <v>701.83699999999999</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>-2539.654</v>
+      </c>
+      <c r="N42">
+        <v>4933.9219999999996</v>
+      </c>
+      <c r="O42">
+        <v>12131.905000000001</v>
+      </c>
+      <c r="P42">
+        <v>1164.4459999999999</v>
+      </c>
+      <c r="Q42">
+        <v>-1738.356</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>2717.933</v>
+      </c>
+      <c r="U42">
+        <v>1204.883</v>
+      </c>
+      <c r="V42">
+        <v>1212.4490000000001</v>
+      </c>
+      <c r="W42">
+        <v>-16.387</v>
+      </c>
+      <c r="X42">
+        <v>-2927.11</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>31.481000000000002</v>
+      </c>
+      <c r="AA42">
+        <v>81.722999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>80.917000000000002</v>
+      </c>
+      <c r="D43">
+        <v>843.42</v>
+      </c>
+      <c r="E43">
+        <v>1928.828</v>
+      </c>
+      <c r="F43">
+        <v>762.95299999999997</v>
+      </c>
+      <c r="G43">
+        <v>13877.86</v>
+      </c>
+      <c r="H43">
+        <v>15284.179</v>
+      </c>
+      <c r="I43">
+        <v>4090.1439999999998</v>
+      </c>
+      <c r="J43">
+        <v>463.34500000000003</v>
+      </c>
+      <c r="K43">
+        <v>678.81200000000001</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>5238.1589999999997</v>
+      </c>
+      <c r="O43">
+        <v>12464.771000000001</v>
+      </c>
+      <c r="P43">
+        <v>1142.1569999999999</v>
+      </c>
+      <c r="Q43">
+        <v>50.284999999999997</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2819.4079999999999</v>
+      </c>
+      <c r="U43">
+        <v>1255.1679999999999</v>
+      </c>
+      <c r="V43">
+        <v>-79.471999999999994</v>
+      </c>
+      <c r="W43">
+        <v>-16.481000000000002</v>
+      </c>
+      <c r="X43">
+        <v>3.5289999999999999</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>56.747999999999998</v>
+      </c>
+      <c r="AA43">
+        <v>80.917000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>46.786000000000001</v>
+      </c>
+      <c r="D44">
+        <v>842.024</v>
+      </c>
+      <c r="E44">
+        <v>1988.1969999999999</v>
+      </c>
+      <c r="F44">
+        <v>760.74800000000005</v>
+      </c>
+      <c r="G44">
+        <v>14699.72</v>
+      </c>
+      <c r="H44">
+        <v>16117.109</v>
+      </c>
+      <c r="I44">
+        <v>4138.6570000000002</v>
+      </c>
+      <c r="J44">
+        <v>707.22199999999998</v>
+      </c>
+      <c r="K44">
+        <v>838.096</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>5553.63</v>
+      </c>
+      <c r="O44">
+        <v>13251.87</v>
+      </c>
+      <c r="P44">
+        <v>1549.306</v>
+      </c>
+      <c r="Q44">
+        <v>343.52</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2865.239</v>
+      </c>
+      <c r="U44">
+        <v>1598.6880000000001</v>
+      </c>
+      <c r="V44">
+        <v>-42.822000000000003</v>
+      </c>
+      <c r="W44">
+        <v>-16.478000000000002</v>
+      </c>
+      <c r="X44">
+        <v>472.63</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>13.714</v>
+      </c>
+      <c r="AA44">
+        <v>46.786000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>68.927000000000007</v>
+      </c>
+      <c r="D45">
+        <v>812.36</v>
+      </c>
+      <c r="E45">
+        <v>1812.924</v>
+      </c>
+      <c r="F45">
+        <v>842.13199999999995</v>
+      </c>
+      <c r="G45">
+        <v>16353.517</v>
+      </c>
+      <c r="H45">
+        <v>18006.994999999999</v>
+      </c>
+      <c r="I45">
+        <v>5059.4449999999997</v>
+      </c>
+      <c r="J45">
+        <v>690.61800000000005</v>
+      </c>
+      <c r="K45">
+        <v>1009.922</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>6634.7730000000001</v>
+      </c>
+      <c r="O45">
+        <v>15095.15</v>
+      </c>
+      <c r="P45">
+        <v>1721.8720000000001</v>
+      </c>
+      <c r="Q45">
+        <v>841.00699999999995</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>7600</v>
+      </c>
+      <c r="T45">
+        <v>2911.8449999999998</v>
+      </c>
+      <c r="U45">
+        <v>2439.6950000000002</v>
+      </c>
+      <c r="V45">
+        <v>468.286</v>
+      </c>
+      <c r="W45">
+        <v>-13.744</v>
+      </c>
+      <c r="X45">
+        <v>771.56700000000001</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-183.726</v>
+      </c>
+      <c r="AA45">
+        <v>68.927000000000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>67.325000000000003</v>
+      </c>
+      <c r="D46">
+        <v>775.32100000000003</v>
+      </c>
+      <c r="E46">
+        <v>1741.1030000000001</v>
+      </c>
+      <c r="F46">
+        <v>697.80100000000004</v>
+      </c>
+      <c r="G46">
+        <v>16395.462</v>
+      </c>
+      <c r="H46">
+        <v>17891.565999999999</v>
+      </c>
+      <c r="I46">
+        <v>5186.7169999999996</v>
+      </c>
+      <c r="J46">
+        <v>697.101</v>
+      </c>
+      <c r="K46">
+        <v>866.88400000000001</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>-15.446999999999999</v>
+      </c>
+      <c r="N46">
+        <v>6480.1009999999997</v>
+      </c>
+      <c r="O46">
+        <v>14928.611999999999</v>
+      </c>
+      <c r="P46">
+        <v>1563.9849999999999</v>
+      </c>
+      <c r="Q46">
+        <v>-522.74099999999999</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>2962.9540000000002</v>
+      </c>
+      <c r="U46">
+        <v>1916.954</v>
+      </c>
+      <c r="V46">
+        <v>-19.991</v>
+      </c>
+      <c r="W46">
+        <v>-16.399000000000001</v>
+      </c>
+      <c r="X46">
+        <v>-57.930999999999997</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>39.081000000000003</v>
+      </c>
+      <c r="AA46">
+        <v>67.325000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>68.869</v>
+      </c>
+      <c r="D47">
+        <v>866.69600000000003</v>
+      </c>
+      <c r="E47">
+        <v>1763.34</v>
+      </c>
+      <c r="F47">
+        <v>806.74199999999996</v>
+      </c>
+      <c r="G47">
+        <v>17659.766</v>
+      </c>
+      <c r="H47">
+        <v>19275.376</v>
+      </c>
+      <c r="I47">
+        <v>5119.7839999999997</v>
+      </c>
+      <c r="J47">
+        <v>1273.364</v>
+      </c>
+      <c r="K47">
+        <v>1034.4949999999999</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>6638.5320000000002</v>
+      </c>
+      <c r="O47">
+        <v>15859.504999999999</v>
+      </c>
+      <c r="P47">
+        <v>2331.1089999999999</v>
+      </c>
+      <c r="Q47">
+        <v>958.904</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>3415.8710000000001</v>
+      </c>
+      <c r="U47">
+        <v>2875.8580000000002</v>
+      </c>
+      <c r="V47">
+        <v>89.061000000000007</v>
+      </c>
+      <c r="W47">
+        <v>-16.478999999999999</v>
+      </c>
+      <c r="X47">
+        <v>1477.5039999999999</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-97.616</v>
+      </c>
+      <c r="AA47">
+        <v>68.869</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>76.349999999999994</v>
+      </c>
+      <c r="D48">
+        <v>1076.0139999999999</v>
+      </c>
+      <c r="E48">
+        <v>2579.1799999999998</v>
+      </c>
+      <c r="F48">
+        <v>1001.942</v>
+      </c>
+      <c r="G48">
+        <v>18853.019</v>
+      </c>
+      <c r="H48">
+        <v>21170.555</v>
+      </c>
+      <c r="I48">
+        <v>5383.0789999999997</v>
+      </c>
+      <c r="J48">
+        <v>1392.375</v>
+      </c>
+      <c r="K48">
+        <v>1450.1590000000001</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>7655.3869999999997</v>
+      </c>
+      <c r="O48">
+        <v>17588.846000000001</v>
+      </c>
+      <c r="P48">
+        <v>2864.6790000000001</v>
+      </c>
+      <c r="Q48">
+        <v>-1146.8230000000001</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>3581.7089999999998</v>
+      </c>
+      <c r="U48">
+        <v>1729.0350000000001</v>
+      </c>
+      <c r="V48">
+        <v>146.71700000000001</v>
+      </c>
+      <c r="W48">
+        <v>-17.777000000000001</v>
+      </c>
+      <c r="X48">
+        <v>163.56399999999999</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-64.013999999999996</v>
+      </c>
+      <c r="AA48">
+        <v>76.349999999999994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>83.325000000000003</v>
+      </c>
+      <c r="D49">
+        <v>1063.1969999999999</v>
+      </c>
+      <c r="E49">
+        <v>2301.4229999999998</v>
+      </c>
+      <c r="F49">
+        <v>984.279</v>
+      </c>
+      <c r="G49">
+        <v>18638.003000000001</v>
+      </c>
+      <c r="H49">
+        <v>21160.264999999999</v>
+      </c>
+      <c r="I49">
+        <v>5246.6840000000002</v>
+      </c>
+      <c r="J49">
+        <v>1392.0309999999999</v>
+      </c>
+      <c r="K49">
+        <v>1234.2919999999999</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>7482.0389999999998</v>
+      </c>
+      <c r="O49">
+        <v>17479.983</v>
+      </c>
+      <c r="P49">
+        <v>2645.098</v>
+      </c>
+      <c r="Q49">
+        <v>250.98500000000001</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>10400</v>
+      </c>
+      <c r="T49">
+        <v>3680.2820000000002</v>
+      </c>
+      <c r="U49">
+        <v>1980.02</v>
+      </c>
+      <c r="V49">
+        <v>175.50200000000001</v>
+      </c>
+      <c r="W49">
+        <v>-18.126999999999999</v>
+      </c>
+      <c r="X49">
+        <v>296.13799999999998</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-37.148000000000003</v>
+      </c>
+      <c r="AA49">
+        <v>83.325000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>85.873999999999995</v>
+      </c>
+      <c r="D50">
+        <v>1106.191</v>
+      </c>
+      <c r="E50">
+        <v>2136.7710000000002</v>
+      </c>
+      <c r="F50">
+        <v>1027.607</v>
+      </c>
+      <c r="G50">
+        <v>19821.671999999999</v>
+      </c>
+      <c r="H50">
+        <v>22275.971000000001</v>
+      </c>
+      <c r="I50">
+        <v>6060.7290000000003</v>
+      </c>
+      <c r="J50">
+        <v>1265.7529999999999</v>
+      </c>
+      <c r="K50">
+        <v>1206.9280000000001</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>-140.494</v>
+      </c>
+      <c r="N50">
+        <v>8023.5569999999998</v>
+      </c>
+      <c r="O50">
+        <v>18466.388999999999</v>
+      </c>
+      <c r="P50">
+        <v>2478.4050000000002</v>
+      </c>
+      <c r="Q50">
+        <v>207.68700000000001</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>3809.5819999999999</v>
+      </c>
+      <c r="U50">
+        <v>2187.7069999999999</v>
+      </c>
+      <c r="V50">
+        <v>237.989</v>
+      </c>
+      <c r="W50">
+        <v>-17.968</v>
+      </c>
+      <c r="X50">
+        <v>354.363</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>29.832000000000001</v>
+      </c>
+      <c r="AA50">
+        <v>85.873999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>79.959999999999994</v>
+      </c>
+      <c r="D51">
+        <v>1138.7329999999999</v>
+      </c>
+      <c r="E51">
+        <v>2388.0160000000001</v>
+      </c>
+      <c r="F51">
+        <v>1053.9000000000001</v>
+      </c>
+      <c r="G51">
+        <v>20196.266</v>
+      </c>
+      <c r="H51">
+        <v>22735.145</v>
+      </c>
+      <c r="I51">
+        <v>6070.1409999999996</v>
+      </c>
+      <c r="J51">
+        <v>1266.8330000000001</v>
+      </c>
+      <c r="K51">
+        <v>1258.7470000000001</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>8254.9670000000006</v>
+      </c>
+      <c r="O51">
+        <v>18823.260999999999</v>
+      </c>
+      <c r="P51">
+        <v>2530.4259999999999</v>
+      </c>
+      <c r="Q51">
+        <v>-13.558</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>3911.884</v>
+      </c>
+      <c r="U51">
+        <v>2174.1489999999999</v>
+      </c>
+      <c r="V51">
+        <v>-61.981000000000002</v>
+      </c>
+      <c r="W51">
+        <v>-19.489000000000001</v>
+      </c>
+      <c r="X51">
+        <v>159.74799999999999</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-26.068000000000001</v>
+      </c>
+      <c r="AA51">
+        <v>79.959999999999994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>83.861999999999995</v>
+      </c>
+      <c r="D52">
+        <v>1109.2819999999999</v>
+      </c>
+      <c r="E52">
+        <v>2284.8989999999999</v>
+      </c>
+      <c r="F52">
+        <v>1022.509</v>
+      </c>
+      <c r="G52">
+        <v>19941.201000000001</v>
+      </c>
+      <c r="H52">
+        <v>22214.190999999999</v>
+      </c>
+      <c r="I52">
+        <v>6035.643</v>
+      </c>
+      <c r="J52">
+        <v>1256.499</v>
+      </c>
+      <c r="K52">
+        <v>962.06700000000001</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>7741.28</v>
+      </c>
+      <c r="O52">
+        <v>18339.048999999999</v>
+      </c>
+      <c r="P52">
+        <v>2219.4969999999998</v>
+      </c>
+      <c r="Q52">
+        <v>411.39600000000002</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>3875.1419999999998</v>
+      </c>
+      <c r="U52">
+        <v>2585.5450000000001</v>
+      </c>
+      <c r="V52">
+        <v>237.16900000000001</v>
+      </c>
+      <c r="W52">
+        <v>-19.545000000000002</v>
+      </c>
+      <c r="X52">
+        <v>-36.941000000000003</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>262.46100000000001</v>
+      </c>
+      <c r="AA52">
+        <v>83.861999999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>117.458</v>
+      </c>
+      <c r="D53">
+        <v>1127.079</v>
+      </c>
+      <c r="E53">
+        <v>2234.4409999999998</v>
+      </c>
+      <c r="F53">
+        <v>1042.538</v>
+      </c>
+      <c r="G53">
+        <v>20865.305</v>
+      </c>
+      <c r="H53">
+        <v>23186.121999999999</v>
+      </c>
+      <c r="I53">
+        <v>6601.384</v>
+      </c>
+      <c r="J53">
+        <v>1238.385</v>
+      </c>
+      <c r="K53">
+        <v>996.08199999999999</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>8628.884</v>
+      </c>
+      <c r="O53">
+        <v>19187.785</v>
+      </c>
+      <c r="P53">
+        <v>2253.5279999999998</v>
+      </c>
+      <c r="Q53">
+        <v>11.071</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>10150</v>
+      </c>
+      <c r="T53">
+        <v>3998.337</v>
+      </c>
+      <c r="U53">
+        <v>2596.616</v>
+      </c>
+      <c r="V53">
+        <v>246.62799999999999</v>
+      </c>
+      <c r="W53">
+        <v>-19.591000000000001</v>
+      </c>
+      <c r="X53">
+        <v>138.262</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>24.687999999999999</v>
+      </c>
+      <c r="AA53">
+        <v>117.458</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>116.633</v>
+      </c>
+      <c r="D54">
+        <v>1173.9849999999999</v>
+      </c>
+      <c r="E54">
+        <v>1994.7539999999999</v>
+      </c>
+      <c r="F54">
+        <v>1090.3779999999999</v>
+      </c>
+      <c r="G54">
+        <v>19695.097000000002</v>
+      </c>
+      <c r="H54">
+        <v>21924.494999999999</v>
+      </c>
+      <c r="I54">
+        <v>4659.2889999999998</v>
+      </c>
+      <c r="J54">
+        <v>1246.348</v>
+      </c>
+      <c r="K54">
+        <v>894.72500000000002</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>-17.577000000000002</v>
+      </c>
+      <c r="N54">
+        <v>6345.1469999999999</v>
+      </c>
+      <c r="O54">
+        <v>17798.906999999999</v>
+      </c>
+      <c r="P54">
+        <v>2141.0729999999999</v>
+      </c>
+      <c r="Q54">
+        <v>205.33600000000001</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>4125.5879999999997</v>
+      </c>
+      <c r="U54">
+        <v>2801.9520000000002</v>
+      </c>
+      <c r="V54">
+        <v>16.515999999999998</v>
+      </c>
+      <c r="W54">
+        <v>-20.28</v>
+      </c>
+      <c r="X54">
+        <v>695.73599999999999</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>35.302999999999997</v>
+      </c>
+      <c r="AA54">
+        <v>116.633</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>104.56</v>
+      </c>
+      <c r="D55">
+        <v>1179.636</v>
+      </c>
+      <c r="E55">
+        <v>2082.3470000000002</v>
+      </c>
+      <c r="F55">
+        <v>1086.4590000000001</v>
+      </c>
+      <c r="G55">
+        <v>20702.095000000001</v>
+      </c>
+      <c r="H55">
+        <v>22868.901999999998</v>
+      </c>
+      <c r="I55">
+        <v>4768.03</v>
+      </c>
+      <c r="J55">
+        <v>1246.204</v>
+      </c>
+      <c r="K55">
+        <v>1184.1780000000001</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>6804.2169999999996</v>
+      </c>
+      <c r="O55">
+        <v>18660.541000000001</v>
+      </c>
+      <c r="P55">
+        <v>2430.3820000000001</v>
+      </c>
+      <c r="Q55">
+        <v>-160.07599999999999</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>4208.3609999999999</v>
+      </c>
+      <c r="U55">
+        <v>2641.8760000000002</v>
+      </c>
+      <c r="V55">
+        <v>116.577</v>
+      </c>
+      <c r="W55">
+        <v>-22.48</v>
+      </c>
+      <c r="X55">
+        <v>391.20400000000001</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>65.438999999999993</v>
+      </c>
+      <c r="AA55">
+        <v>104.56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>122.68899999999999</v>
+      </c>
+      <c r="D56">
+        <v>1213.857</v>
+      </c>
+      <c r="E56">
+        <v>2115.5819999999999</v>
+      </c>
+      <c r="F56">
+        <v>1128.2940000000001</v>
+      </c>
+      <c r="G56">
+        <v>20950.260999999999</v>
+      </c>
+      <c r="H56">
+        <v>23070.289000000001</v>
+      </c>
+      <c r="I56">
+        <v>4494.0360000000001</v>
+      </c>
+      <c r="J56">
+        <v>1235.019</v>
+      </c>
+      <c r="K56">
+        <v>1630.26</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>7147.2219999999998</v>
+      </c>
+      <c r="O56">
+        <v>18757.111000000001</v>
+      </c>
+      <c r="P56">
+        <v>2865.279</v>
+      </c>
+      <c r="Q56">
+        <v>203.881</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>4313.1779999999999</v>
+      </c>
+      <c r="U56">
+        <v>2845.7570000000001</v>
+      </c>
+      <c r="V56">
+        <v>317.827</v>
+      </c>
+      <c r="W56">
+        <v>-22.681999999999999</v>
+      </c>
+      <c r="X56">
+        <v>300.29700000000003</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>55.871000000000002</v>
+      </c>
+      <c r="AA56">
+        <v>122.68899999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>136.36600000000001</v>
+      </c>
+      <c r="D57">
+        <v>1274.6320000000001</v>
+      </c>
+      <c r="E57">
+        <v>2240.92</v>
+      </c>
+      <c r="F57">
+        <v>1191.998</v>
+      </c>
+      <c r="G57">
+        <v>21167.599999999999</v>
+      </c>
+      <c r="H57">
+        <v>23325.651999999998</v>
+      </c>
+      <c r="I57">
+        <v>4867.3689999999997</v>
+      </c>
+      <c r="J57">
+        <v>1716.98</v>
+      </c>
+      <c r="K57">
+        <v>1152.287</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>7193.9160000000002</v>
+      </c>
+      <c r="O57">
+        <v>18892.396000000001</v>
+      </c>
+      <c r="P57">
+        <v>2887.2159999999999</v>
+      </c>
+      <c r="Q57">
+        <v>-646.69399999999996</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>10300</v>
+      </c>
+      <c r="T57">
+        <v>4433.2560000000003</v>
+      </c>
+      <c r="U57">
+        <v>2199.0630000000001</v>
+      </c>
+      <c r="V57">
+        <v>56.667000000000002</v>
+      </c>
+      <c r="W57">
+        <v>-22.66</v>
+      </c>
+      <c r="X57">
+        <v>-163.27600000000001</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>39.258000000000003</v>
+      </c>
+      <c r="AA57">
+        <v>136.36600000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>126.29600000000001</v>
+      </c>
+      <c r="D58">
+        <v>1239.473</v>
+      </c>
+      <c r="E58">
+        <v>2083.8240000000001</v>
+      </c>
+      <c r="F58">
+        <v>1156.6079999999999</v>
+      </c>
+      <c r="G58">
+        <v>22191.661</v>
+      </c>
+      <c r="H58">
+        <v>24253.245999999999</v>
+      </c>
+      <c r="I58">
+        <v>4684.3810000000003</v>
+      </c>
+      <c r="J58">
+        <v>1724.519</v>
+      </c>
+      <c r="K58">
+        <v>1235.654</v>
+      </c>
+      <c r="L58">
+        <v>-49.7</v>
+      </c>
+      <c r="M58">
+        <v>-10.974</v>
+      </c>
+      <c r="N58">
+        <v>6764.4030000000002</v>
+      </c>
+      <c r="O58">
+        <v>19695.112000000001</v>
+      </c>
+      <c r="P58">
+        <v>2960.1729999999998</v>
+      </c>
+      <c r="Q58">
+        <v>450.322</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>4558.134</v>
+      </c>
+      <c r="U58">
+        <v>2649.3850000000002</v>
+      </c>
+      <c r="V58">
+        <v>239.649</v>
+      </c>
+      <c r="W58">
+        <v>-23.626000000000001</v>
+      </c>
+      <c r="X58">
+        <v>989.52700000000004</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-0.13600000000000001</v>
+      </c>
+      <c r="AA58">
+        <v>126.29600000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>113.46299999999999</v>
+      </c>
+      <c r="D59">
+        <v>1273.1579999999999</v>
+      </c>
+      <c r="E59">
+        <v>2045.578</v>
+      </c>
+      <c r="F59">
+        <v>1176.9480000000001</v>
+      </c>
+      <c r="G59">
+        <v>22893.418000000001</v>
+      </c>
+      <c r="H59">
+        <v>24967.935000000001</v>
+      </c>
+      <c r="I59">
+        <v>4750.91</v>
+      </c>
+      <c r="J59">
+        <v>1774.009</v>
+      </c>
+      <c r="K59">
+        <v>1294.9449999999999</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>7155.7070000000003</v>
+      </c>
+      <c r="O59">
+        <v>20316.025000000001</v>
+      </c>
+      <c r="P59">
+        <v>3068.9540000000002</v>
+      </c>
+      <c r="Q59">
+        <v>-109.248</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>4651.91</v>
+      </c>
+      <c r="U59">
+        <v>2540.1370000000002</v>
+      </c>
+      <c r="V59">
+        <v>141.03700000000001</v>
+      </c>
+      <c r="W59">
+        <v>-25.779</v>
+      </c>
+      <c r="X59">
+        <v>286.37599999999998</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>5.5570000000000004</v>
+      </c>
+      <c r="AA59">
+        <v>113.46299999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>133.19499999999999</v>
+      </c>
+      <c r="D60">
+        <v>1325.4179999999999</v>
+      </c>
+      <c r="E60">
+        <v>2287.6860000000001</v>
+      </c>
+      <c r="F60">
+        <v>1231.21</v>
+      </c>
+      <c r="G60">
+        <v>22868.141</v>
+      </c>
+      <c r="H60">
+        <v>24808.416000000001</v>
+      </c>
+      <c r="I60">
+        <v>4978.9399999999996</v>
+      </c>
+      <c r="J60">
+        <v>1513.8979999999999</v>
+      </c>
+      <c r="K60">
+        <v>1143.702</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>7430.451</v>
+      </c>
+      <c r="O60">
+        <v>20062.127</v>
+      </c>
+      <c r="P60">
+        <v>2907.6</v>
+      </c>
+      <c r="Q60">
+        <v>41.944000000000003</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>4746.2889999999998</v>
+      </c>
+      <c r="U60">
+        <v>2582.0810000000001</v>
+      </c>
+      <c r="V60">
+        <v>84.1</v>
+      </c>
+      <c r="W60">
+        <v>-27.71</v>
+      </c>
+      <c r="X60">
+        <v>-366.608</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>144.59700000000001</v>
+      </c>
+      <c r="AA60">
+        <v>133.19499999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>129.18600000000001</v>
+      </c>
+      <c r="D61">
+        <v>1318.1320000000001</v>
+      </c>
+      <c r="E61">
+        <v>2327.1860000000001</v>
+      </c>
+      <c r="F61">
+        <v>1222.702</v>
+      </c>
+      <c r="G61">
+        <v>24266.956999999999</v>
+      </c>
+      <c r="H61">
+        <v>26468.031999999999</v>
+      </c>
+      <c r="I61">
+        <v>5475.2690000000002</v>
+      </c>
+      <c r="J61">
+        <v>1738.232</v>
+      </c>
+      <c r="K61">
+        <v>1343.35</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>8064.5569999999998</v>
+      </c>
+      <c r="O61">
+        <v>21681.934000000001</v>
+      </c>
+      <c r="P61">
+        <v>3094.9450000000002</v>
+      </c>
+      <c r="Q61">
+        <v>18.925000000000001</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>11000</v>
+      </c>
+      <c r="T61">
+        <v>4786.098</v>
+      </c>
+      <c r="U61">
+        <v>2601.0059999999999</v>
+      </c>
+      <c r="V61">
+        <v>434.39100000000002</v>
+      </c>
+      <c r="W61">
+        <v>-26.027999999999999</v>
+      </c>
+      <c r="X61">
+        <v>816.61</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-132.535</v>
+      </c>
+      <c r="AA61">
+        <v>129.18600000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>106.32899999999999</v>
+      </c>
+      <c r="D62">
+        <v>1254.69</v>
+      </c>
+      <c r="E62">
+        <v>2075.0309999999999</v>
+      </c>
+      <c r="F62">
+        <v>1158.002</v>
+      </c>
+      <c r="G62">
+        <v>24764.260999999999</v>
+      </c>
+      <c r="H62">
+        <v>26907.327000000001</v>
+      </c>
+      <c r="I62">
+        <v>5401.2839999999997</v>
+      </c>
+      <c r="J62">
+        <v>1530.3230000000001</v>
+      </c>
+      <c r="K62">
+        <v>1167.2059999999999</v>
+      </c>
+      <c r="L62">
+        <v>-115</v>
+      </c>
+      <c r="M62">
+        <v>-1.091</v>
+      </c>
+      <c r="N62">
+        <v>7708.1949999999997</v>
+      </c>
+      <c r="O62">
+        <v>21986.684000000001</v>
+      </c>
+      <c r="P62">
+        <v>2947.529</v>
+      </c>
+      <c r="Q62">
+        <v>-4.6180000000000003</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>4920.643</v>
+      </c>
+      <c r="U62">
+        <v>2596.3879999999999</v>
+      </c>
+      <c r="V62">
+        <v>247.97300000000001</v>
+      </c>
+      <c r="W62">
+        <v>-27.106000000000002</v>
+      </c>
+      <c r="X62">
+        <v>621.77800000000002</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-80.724000000000004</v>
+      </c>
+      <c r="AA62">
+        <v>106.32899999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>125.84699999999999</v>
+      </c>
+      <c r="D63">
+        <v>1315.3420000000001</v>
+      </c>
+      <c r="E63">
+        <v>2379.8679999999999</v>
+      </c>
+      <c r="F63">
+        <v>1222.0609999999999</v>
+      </c>
+      <c r="G63">
+        <v>25554.579000000002</v>
+      </c>
+      <c r="H63">
+        <v>27753.210999999999</v>
+      </c>
+      <c r="I63">
+        <v>6061.7179999999998</v>
+      </c>
+      <c r="J63">
+        <v>1529.5650000000001</v>
+      </c>
+      <c r="K63">
+        <v>1225.961</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>8614.4220000000005</v>
+      </c>
+      <c r="O63">
+        <v>22875.972000000002</v>
+      </c>
+      <c r="P63">
+        <v>3005.5259999999998</v>
+      </c>
+      <c r="Q63">
+        <v>-1116.6020000000001</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>4877.2389999999996</v>
+      </c>
+      <c r="U63">
+        <v>1479.7860000000001</v>
+      </c>
+      <c r="V63">
+        <v>-305.47199999999998</v>
+      </c>
+      <c r="W63">
+        <v>-29.045999999999999</v>
+      </c>
+      <c r="X63">
+        <v>-88.47</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-23.332000000000001</v>
+      </c>
+      <c r="AA63">
+        <v>125.84699999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>125.504</v>
+      </c>
+      <c r="D64">
+        <v>1355.654</v>
+      </c>
+      <c r="E64">
+        <v>2321.1120000000001</v>
+      </c>
+      <c r="F64">
+        <v>1258.693</v>
+      </c>
+      <c r="G64">
+        <v>26676.791000000001</v>
+      </c>
+      <c r="H64">
+        <v>28843.431</v>
+      </c>
+      <c r="I64">
+        <v>5940.7460000000001</v>
+      </c>
+      <c r="J64">
+        <v>1621.529</v>
+      </c>
+      <c r="K64">
+        <v>1477.383</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>8523.4320000000007</v>
+      </c>
+      <c r="O64">
+        <v>23849.300999999999</v>
+      </c>
+      <c r="P64">
+        <v>3098.9119999999998</v>
+      </c>
+      <c r="Q64">
+        <v>498.27100000000002</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>4994.13</v>
+      </c>
+      <c r="U64">
+        <v>1978.057</v>
+      </c>
+      <c r="V64">
+        <v>17.065999999999999</v>
+      </c>
+      <c r="W64">
+        <v>-28.844999999999999</v>
+      </c>
+      <c r="X64">
+        <v>954.19899999999996</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>24.951000000000001</v>
+      </c>
+      <c r="AA64">
+        <v>125.504</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>171.67</v>
+      </c>
+      <c r="D65">
+        <v>1453.873</v>
+      </c>
+      <c r="E65">
+        <v>3102.5459999999998</v>
+      </c>
+      <c r="F65">
+        <v>1358.395</v>
+      </c>
+      <c r="G65">
+        <v>28713.514999999999</v>
+      </c>
+      <c r="H65">
+        <v>31486.975999999999</v>
+      </c>
+      <c r="I65">
+        <v>6750.79</v>
+      </c>
+      <c r="J65">
+        <v>2289.2449999999999</v>
+      </c>
+      <c r="K65">
+        <v>1346.598</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>9430.5689999999995</v>
+      </c>
+      <c r="O65">
+        <v>26424</v>
+      </c>
+      <c r="P65">
+        <v>3635.8429999999998</v>
+      </c>
+      <c r="Q65">
+        <v>-327.60500000000002</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>11900</v>
+      </c>
+      <c r="T65">
+        <v>5062.9759999999997</v>
+      </c>
+      <c r="U65">
+        <v>1650.452</v>
+      </c>
+      <c r="V65">
+        <v>-532.88499999999999</v>
+      </c>
+      <c r="W65">
+        <v>-28.437999999999999</v>
+      </c>
+      <c r="X65">
+        <v>1052.972</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-316.69099999999997</v>
+      </c>
+      <c r="AA65">
+        <v>171.67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>146.56700000000001</v>
+      </c>
+      <c r="D66">
+        <v>1485.9280000000001</v>
+      </c>
+      <c r="E66">
+        <v>2778.6370000000002</v>
+      </c>
+      <c r="F66">
+        <v>1394.472</v>
+      </c>
+      <c r="G66">
+        <v>28748.738000000001</v>
+      </c>
+      <c r="H66">
+        <v>31669.39</v>
+      </c>
+      <c r="I66">
+        <v>6712.4539999999997</v>
+      </c>
+      <c r="J66">
+        <v>2388.4780000000001</v>
+      </c>
+      <c r="K66">
+        <v>1201.289</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>-1.1379999999999999</v>
+      </c>
+      <c r="N66">
+        <v>8882.3240000000005</v>
+      </c>
+      <c r="O66">
+        <v>26464.789000000001</v>
+      </c>
+      <c r="P66">
+        <v>3589.7669999999998</v>
+      </c>
+      <c r="Q66">
+        <v>877.82299999999998</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>5204.6009999999997</v>
+      </c>
+      <c r="U66">
+        <v>2528.2750000000001</v>
+      </c>
+      <c r="V66">
+        <v>807.29899999999998</v>
+      </c>
+      <c r="W66">
+        <v>-31.254999999999999</v>
+      </c>
+      <c r="X66">
+        <v>1174.778</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-313.27999999999997</v>
+      </c>
+      <c r="AA66">
+        <v>146.56700000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>112.755</v>
+      </c>
+      <c r="D67">
+        <v>1557.9870000000001</v>
+      </c>
+      <c r="E67">
+        <v>2819.5479999999998</v>
+      </c>
+      <c r="F67">
+        <v>1464.1420000000001</v>
+      </c>
+      <c r="G67">
+        <v>29420.998</v>
+      </c>
+      <c r="H67">
+        <v>32928.731</v>
+      </c>
+      <c r="I67">
+        <v>6861.9179999999997</v>
+      </c>
+      <c r="J67">
+        <v>2045.9490000000001</v>
+      </c>
+      <c r="K67">
+        <v>1024.816</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>9169.5220000000008</v>
+      </c>
+      <c r="O67">
+        <v>27600.513999999999</v>
+      </c>
+      <c r="P67">
+        <v>3070.7649999999999</v>
+      </c>
+      <c r="Q67">
+        <v>108.051</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>5328.2169999999996</v>
+      </c>
+      <c r="U67">
+        <v>2636.326</v>
+      </c>
+      <c r="V67">
+        <v>227.952</v>
+      </c>
+      <c r="W67">
+        <v>-31.771999999999998</v>
+      </c>
+      <c r="X67">
+        <v>666.17</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-550.14099999999996</v>
+      </c>
+      <c r="AA67">
+        <v>112.755</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>183.42400000000001</v>
+      </c>
+      <c r="D68">
+        <v>1629.8109999999999</v>
+      </c>
+      <c r="E68">
+        <v>2916.44</v>
+      </c>
+      <c r="F68">
+        <v>1531.8589999999999</v>
+      </c>
+      <c r="G68">
+        <v>29617.645</v>
+      </c>
+      <c r="H68">
+        <v>33433.425999999999</v>
+      </c>
+      <c r="I68">
+        <v>6611.0290000000005</v>
+      </c>
+      <c r="J68">
+        <v>2653.2190000000001</v>
+      </c>
+      <c r="K68">
+        <v>983.572</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>8803.1329999999998</v>
+      </c>
+      <c r="O68">
+        <v>27932.675999999999</v>
+      </c>
+      <c r="P68">
+        <v>3636.7910000000002</v>
+      </c>
+      <c r="Q68">
+        <v>-20.847000000000001</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>5500.75</v>
+      </c>
+      <c r="U68">
+        <v>2615.4789999999998</v>
+      </c>
+      <c r="V68">
+        <v>292.83600000000001</v>
+      </c>
+      <c r="W68">
+        <v>-32.295000000000002</v>
+      </c>
+      <c r="X68">
+        <v>461.30599999999998</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-296.97500000000002</v>
+      </c>
+      <c r="AA68">
+        <v>183.42400000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>193.489</v>
+      </c>
+      <c r="D69">
+        <v>1704.345</v>
+      </c>
+      <c r="E69">
+        <v>3039.7919999999999</v>
+      </c>
+      <c r="F69">
+        <v>1597.981</v>
+      </c>
+      <c r="G69">
+        <v>30235.262999999999</v>
+      </c>
+      <c r="H69">
+        <v>34883.455999999998</v>
+      </c>
+      <c r="I69">
+        <v>5584.5429999999997</v>
+      </c>
+      <c r="J69">
+        <v>2452.8510000000001</v>
+      </c>
+      <c r="K69">
+        <v>1571.8589999999999</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>8549.5280000000002</v>
+      </c>
+      <c r="O69">
+        <v>29190.105</v>
+      </c>
+      <c r="P69">
+        <v>4024.71</v>
+      </c>
+      <c r="Q69">
+        <v>1054.193</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>12700</v>
+      </c>
+      <c r="T69">
+        <v>5693.3509999999997</v>
+      </c>
+      <c r="U69">
+        <v>3669.672</v>
+      </c>
+      <c r="V69">
+        <v>-22.151</v>
+      </c>
+      <c r="W69">
+        <v>-31.88</v>
+      </c>
+      <c r="X69">
+        <v>1762.309</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-179.27699999999999</v>
+      </c>
+      <c r="AA69">
+        <v>193.489</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>119</v>
+      </c>
+      <c r="D70">
+        <v>1726</v>
+      </c>
+      <c r="E70">
+        <v>2890.3040000000001</v>
+      </c>
+      <c r="F70">
+        <v>1624</v>
+      </c>
+      <c r="G70">
+        <v>31005.591</v>
+      </c>
+      <c r="H70">
+        <v>36084.898999999998</v>
+      </c>
+      <c r="I70">
+        <v>6009.491</v>
+      </c>
+      <c r="J70">
+        <v>2751.8009999999999</v>
+      </c>
+      <c r="K70">
+        <v>1205.848</v>
+      </c>
+      <c r="L70">
+        <v>-280</v>
+      </c>
+      <c r="M70">
+        <v>-1</v>
+      </c>
+      <c r="N70">
+        <v>8317.2029999999995</v>
+      </c>
+      <c r="O70">
+        <v>30281.944</v>
+      </c>
+      <c r="P70">
+        <v>3957.6489999999999</v>
+      </c>
+      <c r="Q70">
+        <v>321</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>5802.9549999999999</v>
+      </c>
+      <c r="U70">
+        <v>3897.529</v>
+      </c>
+      <c r="V70">
+        <v>422</v>
+      </c>
+      <c r="W70">
+        <v>-32</v>
+      </c>
+      <c r="X70">
+        <v>980</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-226</v>
+      </c>
+      <c r="AA70">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>243</v>
+      </c>
+      <c r="D71">
+        <v>1794</v>
+      </c>
+      <c r="E71">
+        <v>3163.2649999999999</v>
+      </c>
+      <c r="F71">
+        <v>1678</v>
+      </c>
+      <c r="G71">
+        <v>30766.534</v>
+      </c>
+      <c r="H71">
+        <v>36030.870999999999</v>
+      </c>
+      <c r="I71">
+        <v>6249.616</v>
+      </c>
+      <c r="J71">
+        <v>2450.7159999999999</v>
+      </c>
+      <c r="K71">
+        <v>747.94200000000001</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>8346.1859999999997</v>
+      </c>
+      <c r="O71">
+        <v>29988.649000000001</v>
+      </c>
+      <c r="P71">
+        <v>3198.6579999999999</v>
+      </c>
+      <c r="Q71">
+        <v>-1248</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>6042.2219999999998</v>
+      </c>
+      <c r="U71">
+        <v>3139.9380000000001</v>
+      </c>
+      <c r="V71">
+        <v>184</v>
+      </c>
+      <c r="W71">
+        <v>-39</v>
+      </c>
+      <c r="X71">
+        <v>-668</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-195</v>
+      </c>
+      <c r="AA71">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>232</v>
+      </c>
+      <c r="D72">
+        <v>1817</v>
+      </c>
+      <c r="E72">
+        <v>3140.6860000000001</v>
+      </c>
+      <c r="F72">
+        <v>1705</v>
+      </c>
+      <c r="G72">
+        <v>31020.897000000001</v>
+      </c>
+      <c r="H72">
+        <v>36364.108999999997</v>
+      </c>
+      <c r="I72">
+        <v>5262.1459999999997</v>
+      </c>
+      <c r="J72">
+        <v>2449.819</v>
+      </c>
+      <c r="K72">
+        <v>794.34</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>7471.6880000000001</v>
+      </c>
+      <c r="O72">
+        <v>30114.058000000001</v>
+      </c>
+      <c r="P72">
+        <v>3244.1590000000001</v>
+      </c>
+      <c r="Q72">
+        <v>-352</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>6250.0510000000004</v>
+      </c>
+      <c r="U72">
+        <v>3179.7510000000002</v>
+      </c>
+      <c r="V72">
+        <v>-382</v>
+      </c>
+      <c r="W72">
+        <v>-36</v>
+      </c>
+      <c r="X72">
+        <v>730</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-118</v>
+      </c>
+      <c r="AA72">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>263</v>
+      </c>
+      <c r="D73">
+        <v>1899</v>
+      </c>
+      <c r="E73">
+        <v>3600</v>
+      </c>
+      <c r="F73">
+        <v>1785</v>
+      </c>
+      <c r="G73">
+        <v>32185</v>
+      </c>
+      <c r="H73">
+        <v>37413</v>
+      </c>
+      <c r="I73">
+        <v>5831</v>
+      </c>
+      <c r="J73">
+        <v>2449</v>
+      </c>
+      <c r="K73">
+        <v>856</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>8321</v>
+      </c>
+      <c r="O73">
+        <v>30961</v>
+      </c>
+      <c r="P73">
+        <v>3305</v>
+      </c>
+      <c r="Q73">
+        <v>74</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>13900</v>
+      </c>
+      <c r="T73">
+        <v>6452</v>
+      </c>
+      <c r="U73">
+        <v>3500</v>
+      </c>
+      <c r="V73">
+        <v>660</v>
+      </c>
+      <c r="W73">
+        <v>-44</v>
+      </c>
+      <c r="X73">
+        <v>378</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-45</v>
+      </c>
+      <c r="AA73">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>249</v>
+      </c>
+      <c r="D74">
+        <v>1889</v>
+      </c>
+      <c r="E74">
+        <v>3112</v>
+      </c>
+      <c r="F74">
+        <v>1773</v>
+      </c>
+      <c r="G74">
+        <v>33092</v>
+      </c>
+      <c r="H74">
+        <v>38544</v>
+      </c>
+      <c r="I74">
+        <v>5376</v>
+      </c>
+      <c r="J74">
+        <v>2748</v>
+      </c>
+      <c r="K74">
+        <v>718</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>-1</v>
+      </c>
+      <c r="N74">
+        <v>7345</v>
+      </c>
+      <c r="O74">
+        <v>32319</v>
+      </c>
+      <c r="P74">
+        <v>3466</v>
+      </c>
+      <c r="Q74">
+        <v>1163</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>6225</v>
+      </c>
+      <c r="U74">
+        <v>4322</v>
+      </c>
+      <c r="V74">
+        <v>225</v>
+      </c>
+      <c r="W74">
+        <v>-47</v>
+      </c>
+      <c r="X74">
+        <v>1526</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-140</v>
+      </c>
+      <c r="AA74">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>261</v>
+      </c>
+      <c r="D75">
+        <v>1858</v>
+      </c>
+      <c r="E75">
+        <v>3068</v>
+      </c>
+      <c r="F75">
+        <v>1742</v>
+      </c>
+      <c r="G75">
+        <v>32521</v>
+      </c>
+      <c r="H75">
+        <v>38176</v>
+      </c>
+      <c r="I75">
+        <v>4675</v>
+      </c>
+      <c r="J75">
+        <v>2446</v>
+      </c>
+      <c r="K75">
+        <v>1167</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>7329</v>
+      </c>
+      <c r="O75">
+        <v>31741</v>
+      </c>
+      <c r="P75">
+        <v>3613</v>
+      </c>
+      <c r="Q75">
+        <v>-985</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>6435</v>
+      </c>
+      <c r="U75">
+        <v>3831</v>
+      </c>
+      <c r="V75">
+        <v>-205</v>
+      </c>
+      <c r="W75">
+        <v>-48</v>
+      </c>
+      <c r="X75">
+        <v>-427</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>-74</v>
+      </c>
+      <c r="AA75">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>259</v>
+      </c>
+      <c r="D76">
+        <v>1940</v>
+      </c>
+      <c r="E76">
+        <v>2887</v>
+      </c>
+      <c r="F76">
+        <v>1824</v>
+      </c>
+      <c r="G76">
+        <v>32926</v>
+      </c>
+      <c r="H76">
+        <v>38677</v>
+      </c>
+      <c r="I76">
+        <v>4517</v>
+      </c>
+      <c r="J76">
+        <v>2445</v>
+      </c>
+      <c r="K76">
+        <v>919</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>7011</v>
+      </c>
+      <c r="O76">
+        <v>32113</v>
+      </c>
+      <c r="P76">
+        <v>3364</v>
+      </c>
+      <c r="Q76">
+        <v>-167</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>6564</v>
+      </c>
+      <c r="U76">
+        <v>3596</v>
+      </c>
+      <c r="V76">
+        <v>-121</v>
+      </c>
+      <c r="W76">
+        <v>-48</v>
+      </c>
+      <c r="X76">
+        <v>411</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>-19</v>
+      </c>
+      <c r="AA76">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>265</v>
+      </c>
+      <c r="D77">
+        <v>2006</v>
+      </c>
+      <c r="E77">
+        <v>2671</v>
+      </c>
+      <c r="F77">
+        <v>1887</v>
+      </c>
+      <c r="G77">
+        <v>33106</v>
+      </c>
+      <c r="H77">
+        <v>38830</v>
+      </c>
+      <c r="I77">
+        <v>4361</v>
+      </c>
+      <c r="J77">
+        <v>2444</v>
+      </c>
+      <c r="K77">
+        <v>786</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>6982</v>
+      </c>
+      <c r="O77">
+        <v>32187</v>
+      </c>
+      <c r="P77">
+        <v>3230</v>
+      </c>
+      <c r="Q77">
+        <v>19</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>14200</v>
+      </c>
+      <c r="T77">
+        <v>6643</v>
+      </c>
+      <c r="U77">
+        <v>3957</v>
+      </c>
+      <c r="V77">
+        <v>678</v>
+      </c>
+      <c r="W77">
+        <v>-48</v>
+      </c>
+      <c r="X77">
+        <v>-137</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>-150</v>
+      </c>
+      <c r="AA77">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>268</v>
+      </c>
+      <c r="D78">
+        <v>2022</v>
+      </c>
+      <c r="E78">
+        <v>2689</v>
+      </c>
+      <c r="F78">
+        <v>1902</v>
+      </c>
+      <c r="G78">
+        <v>33722</v>
+      </c>
+      <c r="H78">
+        <v>40154</v>
+      </c>
+      <c r="I78">
+        <v>5020</v>
+      </c>
+      <c r="J78">
+        <v>2443</v>
+      </c>
+      <c r="K78">
+        <v>751</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>-851</v>
+      </c>
+      <c r="N78">
+        <v>7330</v>
+      </c>
+      <c r="O78">
+        <v>33251</v>
+      </c>
+      <c r="P78">
+        <v>3543</v>
+      </c>
+      <c r="Q78">
+        <v>719</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>6903</v>
+      </c>
+      <c r="U78">
+        <v>4109</v>
+      </c>
+      <c r="V78">
+        <v>546</v>
+      </c>
+      <c r="W78">
+        <v>-51</v>
+      </c>
+      <c r="X78">
+        <v>654</v>
+      </c>
+      <c r="Y78">
+        <v>284</v>
+      </c>
+      <c r="Z78">
+        <v>-108</v>
+      </c>
+      <c r="AA78">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>169</v>
+      </c>
+      <c r="D79">
+        <v>1916</v>
+      </c>
+      <c r="E79">
+        <v>2936</v>
+      </c>
+      <c r="F79">
+        <v>1791</v>
+      </c>
+      <c r="G79">
+        <v>42517</v>
+      </c>
+      <c r="H79">
+        <v>49809</v>
+      </c>
+      <c r="I79">
+        <v>7360</v>
+      </c>
+      <c r="J79">
+        <v>2935</v>
+      </c>
+      <c r="K79">
+        <v>670</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>9387</v>
+      </c>
+      <c r="O79">
+        <v>42975</v>
+      </c>
+      <c r="P79">
+        <v>3956</v>
+      </c>
+      <c r="Q79">
+        <v>8003</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>6834</v>
+      </c>
+      <c r="U79">
+        <v>10648</v>
+      </c>
+      <c r="V79">
+        <v>2397</v>
+      </c>
+      <c r="W79">
+        <v>-52</v>
+      </c>
+      <c r="X79">
+        <v>7297</v>
+      </c>
+      <c r="Y79">
+        <v>308</v>
+      </c>
+      <c r="Z79">
+        <v>-860</v>
+      </c>
+      <c r="AA79">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>172</v>
+      </c>
+      <c r="D80">
+        <v>1772</v>
+      </c>
+      <c r="E80">
+        <v>2818</v>
+      </c>
+      <c r="F80">
+        <v>1649</v>
+      </c>
+      <c r="G80">
+        <v>35792</v>
+      </c>
+      <c r="H80">
+        <v>44682</v>
+      </c>
+      <c r="I80">
+        <v>6145</v>
+      </c>
+      <c r="J80">
+        <v>2909</v>
+      </c>
+      <c r="K80">
+        <v>710</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>8462</v>
+      </c>
+      <c r="O80">
+        <v>37667</v>
+      </c>
+      <c r="P80">
+        <v>3995</v>
+      </c>
+      <c r="Q80">
+        <v>-5856</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>7015</v>
+      </c>
+      <c r="U80">
+        <v>5632</v>
+      </c>
+      <c r="V80">
+        <v>-288</v>
+      </c>
+      <c r="W80">
+        <v>-51</v>
+      </c>
+      <c r="X80">
+        <v>-4693</v>
+      </c>
+      <c r="Y80">
+        <v>333</v>
+      </c>
+      <c r="Z80">
+        <v>-1213</v>
+      </c>
+      <c r="AA80">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>209</v>
+      </c>
+      <c r="D81">
+        <v>2047</v>
+      </c>
+      <c r="E81">
+        <v>2435</v>
+      </c>
+      <c r="F81">
+        <v>1921</v>
+      </c>
+      <c r="G81">
+        <v>36699</v>
+      </c>
+      <c r="H81">
+        <v>47482</v>
+      </c>
+      <c r="I81">
+        <v>6792</v>
+      </c>
+      <c r="J81">
+        <v>2903</v>
+      </c>
+      <c r="K81">
+        <v>643</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>9516</v>
+      </c>
+      <c r="O81">
+        <v>40306</v>
+      </c>
+      <c r="P81">
+        <v>3921</v>
+      </c>
+      <c r="Q81">
+        <v>797</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>14800</v>
+      </c>
+      <c r="T81">
+        <v>7176</v>
+      </c>
+      <c r="U81">
+        <v>5390</v>
+      </c>
+      <c r="V81">
+        <v>1399</v>
+      </c>
+      <c r="W81">
+        <v>-51</v>
+      </c>
+      <c r="X81">
+        <v>1335</v>
+      </c>
+      <c r="Y81">
+        <v>248</v>
+      </c>
+      <c r="Z81">
+        <v>-2119</v>
+      </c>
+      <c r="AA81">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>312</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2234</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>2286</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>2107</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>41501</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>53657</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>11918</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>2907</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>607</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
         <v>-26</v>
       </c>
-      <c r="N42">
+      <c r="N82">
         <v>14090</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>46219</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>3886</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>1762</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>7438</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>5377</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>1904</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-55</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>908</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>298</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-180</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>312</v>
       </c>
     </row>
